--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_재비산_TSP.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_TSP</t>
+  </si>
+  <si>
+    <t>02_taxi_TSP</t>
+  </si>
+  <si>
+    <t>03_van_TSP</t>
+  </si>
+  <si>
+    <t>04_bus_TSP</t>
+  </si>
+  <si>
+    <t>05_LightTruck_TSP</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_TSP</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_TSP</t>
+  </si>
+  <si>
+    <t>Total_TSP (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1290 +397,1393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_TSP</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_TSP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_TSP</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_TSP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_TSP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_TSP</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_TSP (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>121.3989352296868</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>9.331704183351738</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>52.78241243494378</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>23.24080759969073</v>
+      </c>
+      <c r="F2">
         <v>48.0461036252016</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>123.0668330082943</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>4.921930980672282</v>
       </c>
-      <c r="H2" t="n">
-        <v>359.5479194621504</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>382.7887270618412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>126.4636190003311</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>11.45254604320441</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>50.69889615461706</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>26.05787518753202</v>
+      </c>
+      <c r="F3">
         <v>44.76584755440471</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>109.1347387054685</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>3.786100754363293</v>
       </c>
-      <c r="H3" t="n">
-        <v>346.3017482123891</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>372.3596233999211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>133.9071693905206</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>11.02837767123387</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>51.39340158139262</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>23.94507449665105</v>
+      </c>
+      <c r="F4">
         <v>43.99402259657015</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>103.7167020321474</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>6.436371282417597</v>
       </c>
-      <c r="H4" t="n">
-        <v>350.4760445542822</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>374.4211190509332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>132.6026296314152</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>9.967956741307539</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>43.05933646008571</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>26.05787518753202</v>
+      </c>
+      <c r="F5">
         <v>50.16862225924666</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>71.2084819922206</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>4.921930980672282</v>
       </c>
-      <c r="H5" t="n">
-        <v>311.928958064948</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>337.98683325248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>142.0413584767069</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>9.755872555322272</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>59.72746670269954</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>26.76214208449234</v>
+      </c>
+      <c r="F6">
         <v>46.30949747007384</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>85.91458153409224</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>4.921930980672282</v>
       </c>
-      <c r="H6" t="n">
-        <v>348.6707077195671</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>375.4328498040594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>148.7942701708992</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>10.1800409272928</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>56.94944499559725</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>25.3536082905717</v>
+      </c>
+      <c r="F7">
         <v>44.95880379386335</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>73.53049770935822</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>5.679151131544941</v>
       </c>
-      <c r="H7" t="n">
-        <v>340.0922087285558</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>365.4458170191274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>169.1297428863652</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>7.635030695469603</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>61.11647755625069</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>37.32614553889721</v>
+      </c>
+      <c r="F8">
         <v>43.02924139927693</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>43.34429338656906</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>7.193591433290257</v>
       </c>
-      <c r="H8" t="n">
-        <v>331.4483773572217</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>368.774522896119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>184.860957628518</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>6.150441393572739</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>52.78241243494378</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>52.8200172720244</v>
+      </c>
+      <c r="F9">
         <v>31.25891079229983</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>33.28222527897266</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>2.271660452617976</v>
       </c>
-      <c r="H9" t="n">
-        <v>310.606607980925</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>363.4266252529495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>187.7769876782829</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>7.21086232349907</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>41.67032560653456</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>56.341351756826</v>
+      </c>
+      <c r="F10">
         <v>16.78719283290177</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>17.80212049805515</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>1.135830226308988</v>
       </c>
-      <c r="H10" t="n">
-        <v>272.3833191655825</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>328.7246709224085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>121.2454599639097</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>11.24046185721914</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>25.00219536392074</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>46.48161519938145</v>
+      </c>
+      <c r="F11">
         <v>7.718249578345638</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>13.15808906377989</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>1.514440301745317</v>
       </c>
-      <c r="H11" t="n">
-        <v>179.8788961289204</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>226.3605113283018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>104.4399183613171</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>12.51296697313074</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>20.83516280326728</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>40.14321312673852</v>
+      </c>
+      <c r="F12">
         <v>9.261899494014768</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>11.61007858568814</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>1.135830226308988</v>
       </c>
-      <c r="H12" t="n">
-        <v>159.7958564437271</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>199.9390695704656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>79.50018767253823</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>6.998778137513805</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>18.05714109616498</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>32.39627726017494</v>
+      </c>
+      <c r="F13">
         <v>6.367555902135154</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>8.514057629504636</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>119.4377204378568</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>151.8339976980318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>58.09038809663267</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>7.422946509484336</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>14.58461396228709</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>16.19813863008747</v>
+      </c>
+      <c r="F14">
         <v>6.367555902135154</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>9.288062868550513</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.3786100754363294</v>
       </c>
-      <c r="H14" t="n">
-        <v>96.1321774145261</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>112.3303160446136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>36.37363798917291</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1.908757673867401</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>6.250548840980186</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>14.78960483616683</v>
+      </c>
+      <c r="F15">
         <v>3.473212310255537</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>13.15808906377989</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.3786100754363294</v>
       </c>
-      <c r="H15" t="n">
-        <v>61.54285595349225</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>76.33246078965908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>25.55363175188732</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>4.453767905690603</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>4.167032560653458</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>7.04266896960325</v>
+      </c>
+      <c r="F16">
         <v>7.139380859969716</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>8.514057629504636</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.7572201508726587</v>
       </c>
-      <c r="H16" t="n">
-        <v>50.58509085857839</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>57.62775982818165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>16.49859107103835</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>6.574609765543272</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>1.389010853551152</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17">
         <v>5.209818465383306</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>13.93209430282577</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
+      <c r="I17">
         <v>43.60412445834185</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>10.66653097150852</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>4.453767905690603</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>4.861537987429032</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18">
         <v>3.473212310255537</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>17.80212049805515</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="I18">
         <v>41.25716967293884</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>11.97107073061387</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>3.817515347734802</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>4.167032560653458</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>5.6341351756826</v>
+      </c>
+      <c r="F19">
         <v>4.437993507548742</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>17.02811525900927</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>41.42172740556015</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>47.05586258124275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>21.40979957590558</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>2.545010231823201</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>9.723075974858064</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>2.8170675878413</v>
+      </c>
+      <c r="F20">
         <v>8.875987015097484</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>21.67214669328453</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>64.22601949096887</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>67.04308707881017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>51.49095166821736</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1.908757673867401</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>20.83516280326728</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>26.05787518753202</v>
+      </c>
+      <c r="F21">
         <v>15.82241163560856</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>31.73421480088092</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>1.135830226308988</v>
       </c>
-      <c r="H21" t="n">
-        <v>122.9273288081505</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>148.9852039956825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>97.84048193290184</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>2.757094417808468</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>44.44834731363686</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>69.72242279907218</v>
+      </c>
+      <c r="F22">
         <v>27.20682976366838</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>55.72837721130308</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>3.786100754363293</v>
       </c>
-      <c r="H22" t="n">
-        <v>231.7672313936819</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>301.4896541927541</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>157.4656226873055</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>2.969178603793735</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>34.72527133877881</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>69.01815590211183</v>
+      </c>
+      <c r="F23">
         <v>31.64482327121712</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>70.43447675317471</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>3.407490678926963</v>
       </c>
-      <c r="H23" t="n">
-        <v>300.6468633331969</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>369.6650192353088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>193.3020972462587</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>6.150441393572739</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>50.69889615461706</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>42.25601381761949</v>
+      </c>
+      <c r="F24">
         <v>38.78420413118684</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>85.91458153409224</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>7.572201508726586</v>
       </c>
-      <c r="H24" t="n">
-        <v>382.4224219684542</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>424.6784357860736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>140.5833434518244</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>10.81629348524861</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>70.83955353110876</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>42.25601381761949</v>
+      </c>
+      <c r="F25">
         <v>43.60811011765285</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>114.5527753787896</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>10.60108211221722</v>
       </c>
-      <c r="H25" t="n">
-        <v>391.0011580768416</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>433.2571718944611</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>118.9433309772532</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>7.21086232349907</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>75.70109151853778</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>22.5365407027304</v>
+      </c>
+      <c r="F26">
         <v>46.88836618844976</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>133.9029063549366</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>5.300541056108611</v>
       </c>
-      <c r="H26" t="n">
-        <v>387.947098418785</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>410.4836391215154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>123.931277115009</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>8.907535811381205</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>72.92306981143548</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>25.3536082905717</v>
+      </c>
+      <c r="F27">
         <v>43.60811011765285</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>119.196806813065</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>4.164710829799622</v>
       </c>
-      <c r="H27" t="n">
-        <v>372.7315104983431</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>398.0851187889148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>131.2213522394213</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>8.483367439410671</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>74.31208066498667</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>23.24080759969073</v>
+      </c>
+      <c r="F28">
         <v>42.8362851598183</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>113.0047649006979</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>7.193591433290257</v>
       </c>
-      <c r="H28" t="n">
-        <v>377.0514418376251</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>400.2922494373158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>129.9168124803159</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>7.635030695469603</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>61.81098298302626</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>25.3536082905717</v>
+      </c>
+      <c r="F29">
         <v>48.81792858303617</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>77.40052390458762</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>5.300541056108611</v>
       </c>
-      <c r="H29" t="n">
-        <v>330.8818197025442</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>356.2354279931158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>139.2020660598305</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>7.422946509484336</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>86.11867292017142</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>26.05787518753202</v>
+      </c>
+      <c r="F30">
         <v>45.15176003332199</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>93.65463392455102</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>5.300541056108611</v>
       </c>
-      <c r="H30" t="n">
-        <v>376.8506205034678</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>402.9084956909999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>145.8015024882459</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>7.847114881454869</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>81.95164035951797</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>24.64934139361138</v>
+      </c>
+      <c r="F31">
         <v>43.8010663571115</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>80.4965448607711</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>6.05776120698127</v>
       </c>
-      <c r="H31" t="n">
-        <v>365.9556301540826</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>390.604971547694</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>165.753287039269</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>5.93835720758747</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>88.20218920049817</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>35.91761174497656</v>
+      </c>
+      <c r="F32">
         <v>41.8715039625251</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>47.21431958179843</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>7.950811584162917</v>
       </c>
-      <c r="H32" t="n">
-        <v>356.930468575841</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>392.8480803208176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>181.1775512498676</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>4.665852091675869</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>75.70109151853778</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>51.41148347810372</v>
+      </c>
+      <c r="F33">
         <v>30.48708583446527</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>36.37824623515616</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>2.650270528054306</v>
       </c>
-      <c r="H33" t="n">
-        <v>331.060097457757</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>382.4715809358607</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>184.016843666744</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>5.514188835616936</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>59.72746670269954</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>54.93281796290533</v>
+      </c>
+      <c r="F34">
         <v>16.40128035398448</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>19.3501309761469</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>1.135830226308988</v>
       </c>
-      <c r="H34" t="n">
-        <v>286.1457407615009</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>341.0785587244062</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>118.7898557114761</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>8.69545162539594</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>36.11428219232996</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>45.0730814054608</v>
+      </c>
+      <c r="F35">
         <v>7.525293338886998</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>14.70609954187164</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>1.514440301745317</v>
       </c>
-      <c r="H35" t="n">
-        <v>187.345422711706</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>232.4185041171667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>102.3680022733263</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>9.543788369337005</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>29.86373335134977</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>38.73467933281788</v>
+      </c>
+      <c r="F36">
         <v>9.068943254556126</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>12.38408382473401</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>1.135830226308988</v>
       </c>
-      <c r="H36" t="n">
-        <v>164.3643812996122</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>203.0990606324301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>77.88869738187869</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>5.302104649631669</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>25.69670079069631</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>31.69201036321463</v>
+      </c>
+      <c r="F37">
         <v>6.174599662676512</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>9.288062868550513</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
-        <v>124.3501653534337</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>156.0421757166483</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>56.93932360330444</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>5.726273021602204</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>20.83516280326728</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>15.49387173312715</v>
+      </c>
+      <c r="F38">
         <v>6.174599662676512</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>10.06206810759639</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.3786100754363294</v>
       </c>
-      <c r="H38" t="n">
-        <v>100.1160372738832</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>115.6099090070103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>35.60626166028742</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1.484589301896867</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>9.02857054808249</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>14.0853379392065</v>
+      </c>
+      <c r="F39">
         <v>3.473212310255537</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>14.70609954187164</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.3786100754363294</v>
       </c>
-      <c r="H39" t="n">
-        <v>64.67734343783029</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>78.76268137703677</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>25.01646832166744</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>3.393346975764269</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>6.250548840980186</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>7.04266896960325</v>
+      </c>
+      <c r="F40">
         <v>6.946424620511075</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>9.288062868550513</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>0.7572201508726587</v>
       </c>
-      <c r="H40" t="n">
-        <v>51.65207177834615</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>58.6947407479494</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>16.19164053948414</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>5.090020463646402</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>2.083516280326729</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41">
         <v>5.016862225924664</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>15.48010478091752</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="I41">
         <v>43.86214429029946</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>10.43631807284286</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>3.393346975764269</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>6.945054267755758</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42">
         <v>3.473212310255537</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>19.3501309761469</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="I42">
         <v>43.59806260276532</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>11.74085783194822</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>2.969178603793735</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>6.250548840980186</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>5.6341351756826</v>
+      </c>
+      <c r="F43">
         <v>4.245037268090102</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>18.57612573710103</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>43.78174828191327</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>49.41588345759587</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>20.94937377857427</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>1.908757673867401</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>13.89010853551152</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>2.8170675878413</v>
+      </c>
+      <c r="F44">
         <v>8.683030775638844</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>23.99416241042216</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>69.4254331740142</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>72.2425007618555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>50.41662480777764</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>1.484589301896867</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>29.86373335134977</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>25.3536082905717</v>
+      </c>
+      <c r="F45">
         <v>15.43649915669128</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>34.83023575706442</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>1.135830226308988</v>
       </c>
-      <c r="H45" t="n">
-        <v>133.167512601089</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>158.5211208916607</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>95.84530347779955</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>2.120841859852668</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>63.894499263353</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>67.60962210819119</v>
+      </c>
+      <c r="F46">
         <v>26.43500480583381</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>60.37240864557833</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>4.164710829799622</v>
       </c>
-      <c r="H46" t="n">
-        <v>252.832768882217</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>320.4423909904082</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>154.319379738875</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>2.332926045837934</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>50.00439072784149</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>66.90535521123086</v>
+      </c>
+      <c r="F47">
         <v>30.87299831338255</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>76.62651866554172</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>3.786100754363293</v>
       </c>
-      <c r="H47" t="n">
-        <v>317.942314245842</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>384.8476694570728</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>189.3884779689426</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>4.665852091675869</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>72.92306981143548</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>40.84748002369884</v>
+      </c>
+      <c r="F48">
         <v>37.81942293389363</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>93.65463392455102</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>8.329421659599245</v>
       </c>
-      <c r="H48" t="n">
-        <v>406.7808783900978</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>447.6283584137967</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>137.7440510349481</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>8.271283253425404</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>102.0922977360097</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>40.84748002369884</v>
+      </c>
+      <c r="F49">
         <v>42.45037268090102</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>124.614843486386</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>11.73691233852621</v>
       </c>
-      <c r="H49" t="n">
-        <v>426.9097605301965</v>
+      <c r="I49">
+        <v>467.7572405538953</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>121.3989352296868</v>
+        <v>373.4286638814322</v>
       </c>
       <c r="C2">
-        <v>9.331704183351738</v>
+        <v>28.70474784916942</v>
       </c>
       <c r="D2">
-        <v>52.78241243494378</v>
+        <v>162.3611089728879</v>
       </c>
       <c r="E2">
-        <v>23.24080759969073</v>
+        <v>71.48978459372546</v>
       </c>
       <c r="F2">
-        <v>48.0461036252016</v>
+        <v>147.792006968776</v>
       </c>
       <c r="G2">
-        <v>123.0668330082943</v>
+        <v>378.5591935502283</v>
       </c>
       <c r="H2">
-        <v>4.921930980672282</v>
+        <v>15.14008427134554</v>
       </c>
       <c r="I2">
-        <v>382.7887270618412</v>
+        <v>1177.475590087565</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>126.4636190003311</v>
+        <v>389.0078622481669</v>
       </c>
       <c r="C3">
-        <v>11.45254604320441</v>
+        <v>35.2285541785261</v>
       </c>
       <c r="D3">
-        <v>50.69889615461706</v>
+        <v>155.9521178292213</v>
       </c>
       <c r="E3">
-        <v>26.05787518753202</v>
+        <v>80.15521302932856</v>
       </c>
       <c r="F3">
-        <v>44.76584755440471</v>
+        <v>137.7017896255263</v>
       </c>
       <c r="G3">
-        <v>109.1347387054685</v>
+        <v>335.7034357898252</v>
       </c>
       <c r="H3">
-        <v>3.786100754363293</v>
+        <v>11.64621867026579</v>
       </c>
       <c r="I3">
-        <v>372.3596233999211</v>
+        <v>1145.39519137086</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>133.9071693905206</v>
+        <v>411.904562878065</v>
       </c>
       <c r="C4">
-        <v>11.02837767123387</v>
+        <v>33.92379291265476</v>
       </c>
       <c r="D4">
-        <v>51.39340158139262</v>
+        <v>158.0884482104435</v>
       </c>
       <c r="E4">
-        <v>23.94507449665105</v>
+        <v>73.65614170262623</v>
       </c>
       <c r="F4">
-        <v>43.99402259657015</v>
+        <v>135.3276208388793</v>
       </c>
       <c r="G4">
-        <v>103.7167020321474</v>
+        <v>319.0373077718905</v>
       </c>
       <c r="H4">
-        <v>6.436371282417597</v>
+        <v>19.79857173945185</v>
       </c>
       <c r="I4">
-        <v>374.4211190509332</v>
+        <v>1151.736446054011</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>132.6026296314152</v>
+        <v>407.8917390563303</v>
       </c>
       <c r="C5">
-        <v>9.967956741307539</v>
+        <v>30.66188974797642</v>
       </c>
       <c r="D5">
-        <v>43.05933646008571</v>
+        <v>132.452483635777</v>
       </c>
       <c r="E5">
-        <v>26.05787518753202</v>
+        <v>80.15521302932856</v>
       </c>
       <c r="F5">
-        <v>50.16862225924666</v>
+        <v>154.3209711320553</v>
       </c>
       <c r="G5">
-        <v>71.2084819922206</v>
+        <v>219.0405396642832</v>
       </c>
       <c r="H5">
-        <v>4.921930980672282</v>
+        <v>15.14008427134554</v>
       </c>
       <c r="I5">
-        <v>337.98683325248</v>
+        <v>1039.662920537096</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>142.0413584767069</v>
+        <v>436.9256996488814</v>
       </c>
       <c r="C6">
-        <v>9.755872555322272</v>
+        <v>30.00950911504076</v>
       </c>
       <c r="D6">
-        <v>59.72746670269954</v>
+        <v>183.72441278511</v>
       </c>
       <c r="E6">
-        <v>26.76214208449234</v>
+        <v>82.32157013822932</v>
       </c>
       <c r="F6">
-        <v>46.30949747007384</v>
+        <v>142.4501271988203</v>
       </c>
       <c r="G6">
-        <v>85.91458153409224</v>
+        <v>264.2771728558199</v>
       </c>
       <c r="H6">
-        <v>4.921930980672282</v>
+        <v>15.14008427134554</v>
       </c>
       <c r="I6">
-        <v>375.4328498040594</v>
+        <v>1154.848576013247</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>148.7942701708992</v>
+        <v>457.6979641378617</v>
       </c>
       <c r="C7">
-        <v>10.1800409272928</v>
+        <v>31.31427038091208</v>
       </c>
       <c r="D7">
-        <v>56.94944499559725</v>
+        <v>175.1790912602212</v>
       </c>
       <c r="E7">
-        <v>25.3536082905717</v>
+        <v>77.9888559204278</v>
       </c>
       <c r="F7">
-        <v>44.95880379386335</v>
+        <v>138.295331822188</v>
       </c>
       <c r="G7">
-        <v>73.53049770935822</v>
+        <v>226.1831659576836</v>
       </c>
       <c r="H7">
-        <v>5.679151131544941</v>
+        <v>17.46932800539869</v>
       </c>
       <c r="I7">
-        <v>365.4458170191274</v>
+        <v>1124.128007484693</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>169.1297428863652</v>
+        <v>520.2508060649026</v>
       </c>
       <c r="C8">
-        <v>7.635030695469603</v>
+        <v>23.48570278568407</v>
       </c>
       <c r="D8">
-        <v>61.11647755625069</v>
+        <v>187.9970735475544</v>
       </c>
       <c r="E8">
-        <v>37.32614553889721</v>
+        <v>114.8169267717409</v>
       </c>
       <c r="F8">
-        <v>43.02924139927693</v>
+        <v>132.3599098555705</v>
       </c>
       <c r="G8">
-        <v>43.34429338656906</v>
+        <v>133.3290241434767</v>
       </c>
       <c r="H8">
-        <v>7.193591433290257</v>
+        <v>22.12781547350501</v>
       </c>
       <c r="I8">
-        <v>368.774522896119</v>
+        <v>1134.367258642434</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>184.860957628518</v>
+        <v>568.6407403858215</v>
       </c>
       <c r="C9">
-        <v>6.150441393572739</v>
+        <v>18.91903835513439</v>
       </c>
       <c r="D9">
-        <v>52.78241243494378</v>
+        <v>162.3611089728879</v>
       </c>
       <c r="E9">
-        <v>52.8200172720244</v>
+        <v>162.4767831675579</v>
       </c>
       <c r="F9">
-        <v>31.25891079229983</v>
+        <v>96.15383585920371</v>
       </c>
       <c r="G9">
-        <v>33.28222527897266</v>
+        <v>102.377643538741</v>
       </c>
       <c r="H9">
-        <v>2.271660452617976</v>
+        <v>6.987731202159478</v>
       </c>
       <c r="I9">
-        <v>363.4266252529495</v>
+        <v>1117.916881481506</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>187.7769876782829</v>
+        <v>577.6105818696994</v>
       </c>
       <c r="C10">
-        <v>7.21086232349907</v>
+        <v>22.18094151981273</v>
       </c>
       <c r="D10">
-        <v>41.67032560653456</v>
+        <v>128.1798228733325</v>
       </c>
       <c r="E10">
-        <v>56.341351756826</v>
+        <v>173.3085687120617</v>
       </c>
       <c r="F10">
-        <v>16.78719283290177</v>
+        <v>51.63817110957235</v>
       </c>
       <c r="G10">
-        <v>17.80212049805515</v>
+        <v>54.76013491607079</v>
       </c>
       <c r="H10">
-        <v>1.135830226308988</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I10">
-        <v>328.7246709224085</v>
+        <v>1011.172086601629</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>121.2454599639097</v>
+        <v>372.9565669612278</v>
       </c>
       <c r="C11">
-        <v>11.24046185721914</v>
+        <v>34.57617354559044</v>
       </c>
       <c r="D11">
-        <v>25.00219536392074</v>
+        <v>76.90789372399954</v>
       </c>
       <c r="E11">
-        <v>46.48161519938145</v>
+        <v>142.9795691874509</v>
       </c>
       <c r="F11">
-        <v>7.718249578345638</v>
+        <v>23.74168786647004</v>
       </c>
       <c r="G11">
-        <v>13.15808906377989</v>
+        <v>40.4748823292697</v>
       </c>
       <c r="H11">
-        <v>1.514440301745317</v>
+        <v>4.658487468106317</v>
       </c>
       <c r="I11">
-        <v>226.3605113283018</v>
+        <v>696.2952610821148</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>104.4399183613171</v>
+        <v>321.2619541988806</v>
       </c>
       <c r="C12">
-        <v>12.51296697313074</v>
+        <v>38.49045734320445</v>
       </c>
       <c r="D12">
-        <v>20.83516280326728</v>
+        <v>64.08991143666627</v>
       </c>
       <c r="E12">
-        <v>40.14321312673852</v>
+        <v>123.482355207344</v>
       </c>
       <c r="F12">
-        <v>9.261899494014768</v>
+        <v>28.49002543976405</v>
       </c>
       <c r="G12">
-        <v>11.61007858568814</v>
+        <v>35.71313146700268</v>
       </c>
       <c r="H12">
-        <v>1.135830226308988</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I12">
-        <v>199.9390695704656</v>
+        <v>615.0217006939417</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>79.50018767253823</v>
+        <v>244.5462046657166</v>
       </c>
       <c r="C13">
-        <v>6.998778137513805</v>
+        <v>21.52856088687707</v>
       </c>
       <c r="D13">
-        <v>18.05714109616498</v>
+        <v>55.54458991177744</v>
       </c>
       <c r="E13">
-        <v>32.39627726017494</v>
+        <v>99.65242700943551</v>
       </c>
       <c r="F13">
-        <v>6.367555902135154</v>
+        <v>19.58689248983779</v>
       </c>
       <c r="G13">
-        <v>8.514057629504636</v>
+        <v>26.18962974246863</v>
       </c>
       <c r="I13">
-        <v>151.8339976980318</v>
+        <v>467.0483047061131</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>58.09038809663267</v>
+        <v>178.6886842972465</v>
       </c>
       <c r="C14">
-        <v>7.422946509484336</v>
+        <v>22.83332215274839</v>
       </c>
       <c r="D14">
-        <v>14.58461396228709</v>
+        <v>44.86293800566639</v>
       </c>
       <c r="E14">
-        <v>16.19813863008747</v>
+        <v>49.82621350471776</v>
       </c>
       <c r="F14">
-        <v>6.367555902135154</v>
+        <v>19.58689248983779</v>
       </c>
       <c r="G14">
-        <v>9.288062868550513</v>
+        <v>28.57050517360214</v>
       </c>
       <c r="H14">
-        <v>0.3786100754363294</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I14">
-        <v>112.3303160446136</v>
+        <v>345.5331774908456</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>36.37363798917291</v>
+        <v>111.8869700883683</v>
       </c>
       <c r="C15">
-        <v>1.908757673867401</v>
+        <v>5.871425696421017</v>
       </c>
       <c r="D15">
-        <v>6.250548840980186</v>
+        <v>19.22697343099988</v>
       </c>
       <c r="E15">
-        <v>14.78960483616683</v>
+        <v>45.49349928691619</v>
       </c>
       <c r="F15">
-        <v>3.473212310255537</v>
+        <v>10.68375953991152</v>
       </c>
       <c r="G15">
-        <v>13.15808906377989</v>
+        <v>40.4748823292697</v>
       </c>
       <c r="H15">
-        <v>0.3786100754363294</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I15">
-        <v>76.33246078965908</v>
+        <v>234.8021322389132</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>25.55363175188732</v>
+        <v>78.60413721398031</v>
       </c>
       <c r="C16">
-        <v>4.453767905690603</v>
+        <v>13.69999329164904</v>
       </c>
       <c r="D16">
-        <v>4.167032560653458</v>
+        <v>12.81798228733325</v>
       </c>
       <c r="E16">
-        <v>7.04266896960325</v>
+        <v>21.66357108900771</v>
       </c>
       <c r="F16">
-        <v>7.139380859969716</v>
+        <v>21.96106127648479</v>
       </c>
       <c r="G16">
-        <v>8.514057629504636</v>
+        <v>26.18962974246863</v>
       </c>
       <c r="H16">
-        <v>0.7572201508726587</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I16">
-        <v>57.62775982818165</v>
+        <v>177.2656186349769</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>16.49859107103835</v>
+        <v>50.75041892193926</v>
       </c>
       <c r="C17">
-        <v>6.574609765543272</v>
+        <v>20.22379962100572</v>
       </c>
       <c r="D17">
-        <v>1.389010853551152</v>
+        <v>4.272660762444418</v>
       </c>
       <c r="F17">
-        <v>5.209818465383306</v>
+        <v>16.02563930986728</v>
       </c>
       <c r="G17">
-        <v>13.93209430282577</v>
+        <v>42.85575776040322</v>
       </c>
       <c r="I17">
-        <v>43.60412445834185</v>
+        <v>134.1282763756599</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>10.66653097150852</v>
+        <v>32.81073595418398</v>
       </c>
       <c r="C18">
-        <v>4.453767905690603</v>
+        <v>13.69999329164904</v>
       </c>
       <c r="D18">
-        <v>4.861537987429032</v>
+        <v>14.95431266855547</v>
       </c>
       <c r="F18">
-        <v>3.473212310255537</v>
+        <v>10.68375953991152</v>
       </c>
       <c r="G18">
-        <v>17.80212049805515</v>
+        <v>54.76013491607079</v>
       </c>
       <c r="I18">
-        <v>41.25716967293884</v>
+        <v>126.9089363703708</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>11.97107073061387</v>
+        <v>36.82355977591869</v>
       </c>
       <c r="C19">
-        <v>3.817515347734802</v>
+        <v>11.74285139284203</v>
       </c>
       <c r="D19">
-        <v>4.167032560653458</v>
+        <v>12.81798228733325</v>
       </c>
       <c r="E19">
-        <v>5.6341351756826</v>
+        <v>17.33085687120617</v>
       </c>
       <c r="F19">
-        <v>4.437993507548742</v>
+        <v>13.65147052322028</v>
       </c>
       <c r="G19">
-        <v>17.02811525900927</v>
+        <v>52.37925948493726</v>
       </c>
       <c r="I19">
-        <v>47.05586258124275</v>
+        <v>144.7459803354577</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>21.40979957590558</v>
+        <v>65.85752036847002</v>
       </c>
       <c r="C20">
-        <v>2.545010231823201</v>
+        <v>7.828567595228021</v>
       </c>
       <c r="D20">
-        <v>9.723075974858064</v>
+        <v>29.90862533711093</v>
       </c>
       <c r="E20">
-        <v>2.8170675878413</v>
+        <v>8.665428435603085</v>
       </c>
       <c r="F20">
-        <v>8.875987015097484</v>
+        <v>27.30294104644056</v>
       </c>
       <c r="G20">
-        <v>21.67214669328453</v>
+        <v>66.66451207173833</v>
       </c>
       <c r="I20">
-        <v>67.04308707881017</v>
+        <v>206.227594854591</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>51.49095166821736</v>
+        <v>158.3885167284708</v>
       </c>
       <c r="C21">
-        <v>1.908757673867401</v>
+        <v>5.871425696421017</v>
       </c>
       <c r="D21">
-        <v>20.83516280326728</v>
+        <v>64.08991143666627</v>
       </c>
       <c r="E21">
-        <v>26.05787518753202</v>
+        <v>80.15521302932856</v>
       </c>
       <c r="F21">
-        <v>15.82241163560856</v>
+        <v>48.67046012626361</v>
       </c>
       <c r="G21">
-        <v>31.73421480088092</v>
+        <v>97.61589267647399</v>
       </c>
       <c r="H21">
-        <v>1.135830226308988</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I21">
-        <v>148.9852039956825</v>
+        <v>458.285285294704</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>97.84048193290184</v>
+        <v>300.9617866301048</v>
       </c>
       <c r="C22">
-        <v>2.757094417808468</v>
+        <v>8.48094822816369</v>
       </c>
       <c r="D22">
-        <v>44.44834731363686</v>
+        <v>136.7251443982214</v>
       </c>
       <c r="E22">
-        <v>69.72242279907218</v>
+        <v>214.4693537811764</v>
       </c>
       <c r="F22">
-        <v>27.20682976366838</v>
+        <v>83.68944972930694</v>
       </c>
       <c r="G22">
-        <v>55.72837721130308</v>
+        <v>171.4230310416129</v>
       </c>
       <c r="H22">
-        <v>3.786100754363293</v>
+        <v>11.64621867026579</v>
       </c>
       <c r="I22">
-        <v>301.4896541927541</v>
+        <v>927.3959324788519</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>157.4656226873055</v>
+        <v>484.3714401293922</v>
       </c>
       <c r="C23">
-        <v>2.969178603793735</v>
+        <v>9.133328861099361</v>
       </c>
       <c r="D23">
-        <v>34.72527133877881</v>
+        <v>106.8165190611105</v>
       </c>
       <c r="E23">
-        <v>69.01815590211183</v>
+        <v>212.3029966722756</v>
       </c>
       <c r="F23">
-        <v>31.64482327121712</v>
+        <v>97.34092025252721</v>
       </c>
       <c r="G23">
-        <v>70.43447675317471</v>
+        <v>216.6596642331496</v>
       </c>
       <c r="H23">
-        <v>3.407490678926963</v>
+        <v>10.48159680323922</v>
       </c>
       <c r="I23">
-        <v>369.6650192353088</v>
+        <v>1137.106466012793</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>193.3020972462587</v>
+        <v>594.6060709970466</v>
       </c>
       <c r="C24">
-        <v>6.150441393572739</v>
+        <v>18.91903835513439</v>
       </c>
       <c r="D24">
-        <v>50.69889615461706</v>
+        <v>155.9521178292213</v>
       </c>
       <c r="E24">
-        <v>42.25601381761949</v>
+        <v>129.9814265340463</v>
       </c>
       <c r="F24">
-        <v>38.78420413118684</v>
+        <v>119.301981529012</v>
       </c>
       <c r="G24">
-        <v>85.91458153409224</v>
+        <v>264.2771728558199</v>
       </c>
       <c r="H24">
-        <v>7.572201508726586</v>
+        <v>23.29243734053159</v>
       </c>
       <c r="I24">
-        <v>424.6784357860736</v>
+        <v>1306.330245440812</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>140.5833434518244</v>
+        <v>432.4407789069429</v>
       </c>
       <c r="C25">
-        <v>10.81629348524861</v>
+        <v>33.27141227971909</v>
       </c>
       <c r="D25">
-        <v>70.83955353110876</v>
+        <v>217.9056988846654</v>
       </c>
       <c r="E25">
-        <v>42.25601381761949</v>
+        <v>129.9814265340463</v>
       </c>
       <c r="F25">
-        <v>43.60811011765285</v>
+        <v>134.1405364455558</v>
       </c>
       <c r="G25">
-        <v>114.5527753787896</v>
+        <v>352.3695638077597</v>
       </c>
       <c r="H25">
-        <v>10.60108211221722</v>
+        <v>32.60941227674422</v>
       </c>
       <c r="I25">
-        <v>433.2571718944611</v>
+        <v>1332.718829135433</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>118.9433309772532</v>
+        <v>365.8751131581666</v>
       </c>
       <c r="C26">
-        <v>7.21086232349907</v>
+        <v>22.18094151981273</v>
       </c>
       <c r="D26">
-        <v>75.70109151853778</v>
+        <v>232.8600115532209</v>
       </c>
       <c r="E26">
-        <v>22.5365407027304</v>
+        <v>69.32342748482468</v>
       </c>
       <c r="F26">
-        <v>46.88836618844976</v>
+        <v>144.2307537888055</v>
       </c>
       <c r="G26">
-        <v>133.9029063549366</v>
+        <v>411.8914495860977</v>
       </c>
       <c r="H26">
-        <v>5.300541056108611</v>
+        <v>16.30470613837211</v>
       </c>
       <c r="I26">
-        <v>410.4836391215154</v>
+        <v>1262.6664032293</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>123.931277115009</v>
+        <v>381.2182630647994</v>
       </c>
       <c r="C27">
-        <v>8.907535811381205</v>
+        <v>27.39998658329807</v>
       </c>
       <c r="D27">
-        <v>72.92306981143548</v>
+        <v>224.3146900283319</v>
       </c>
       <c r="E27">
-        <v>25.3536082905717</v>
+        <v>77.9888559204278</v>
       </c>
       <c r="F27">
-        <v>43.60811011765285</v>
+        <v>134.1405364455558</v>
       </c>
       <c r="G27">
-        <v>119.196806813065</v>
+        <v>366.6548163945609</v>
       </c>
       <c r="H27">
-        <v>4.164710829799622</v>
+        <v>12.81084053729238</v>
       </c>
       <c r="I27">
-        <v>398.0851187889148</v>
+        <v>1224.527988974266</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>131.2213522394213</v>
+        <v>403.6428667744937</v>
       </c>
       <c r="C28">
-        <v>8.483367439410671</v>
+        <v>26.09522531742675</v>
       </c>
       <c r="D28">
-        <v>74.31208066498667</v>
+        <v>228.5873507907764</v>
       </c>
       <c r="E28">
-        <v>23.24080759969073</v>
+        <v>71.48978459372546</v>
       </c>
       <c r="F28">
-        <v>42.8362851598183</v>
+        <v>131.7663676589088</v>
       </c>
       <c r="G28">
-        <v>113.0047649006979</v>
+        <v>347.6078129454928</v>
       </c>
       <c r="H28">
-        <v>7.193591433290257</v>
+        <v>22.12781547350501</v>
       </c>
       <c r="I28">
-        <v>400.2922494373158</v>
+        <v>1231.317223554329</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>129.9168124803159</v>
+        <v>399.6300429527587</v>
       </c>
       <c r="C29">
-        <v>7.635030695469603</v>
+        <v>23.48570278568407</v>
       </c>
       <c r="D29">
-        <v>61.81098298302626</v>
+        <v>190.1334039287767</v>
       </c>
       <c r="E29">
-        <v>25.3536082905717</v>
+        <v>77.9888559204278</v>
       </c>
       <c r="F29">
-        <v>48.81792858303617</v>
+        <v>150.166175755423</v>
       </c>
       <c r="G29">
-        <v>77.40052390458762</v>
+        <v>238.0875431133513</v>
       </c>
       <c r="H29">
-        <v>5.300541056108611</v>
+        <v>16.30470613837211</v>
       </c>
       <c r="I29">
-        <v>356.2354279931158</v>
+        <v>1095.796430594793</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>139.2020660598305</v>
+        <v>428.191906625106</v>
       </c>
       <c r="C30">
-        <v>7.422946509484336</v>
+        <v>22.83332215274839</v>
       </c>
       <c r="D30">
-        <v>86.11867292017142</v>
+        <v>264.9049672715539</v>
       </c>
       <c r="E30">
-        <v>26.05787518753202</v>
+        <v>80.15521302932856</v>
       </c>
       <c r="F30">
-        <v>45.15176003332199</v>
+        <v>138.8888740188498</v>
       </c>
       <c r="G30">
-        <v>93.65463392455102</v>
+        <v>288.085927167155</v>
       </c>
       <c r="H30">
-        <v>5.300541056108611</v>
+        <v>16.30470613837211</v>
       </c>
       <c r="I30">
-        <v>402.9084956909999</v>
+        <v>1239.364916403114</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>145.8015024882459</v>
+        <v>448.4920741938818</v>
       </c>
       <c r="C31">
-        <v>7.847114881454869</v>
+        <v>24.13808341861974</v>
       </c>
       <c r="D31">
-        <v>81.95164035951797</v>
+        <v>252.0869849842207</v>
       </c>
       <c r="E31">
-        <v>24.64934139361138</v>
+        <v>75.82249881152701</v>
       </c>
       <c r="F31">
-        <v>43.8010663571115</v>
+        <v>134.7340786422175</v>
       </c>
       <c r="G31">
-        <v>80.4965448607711</v>
+        <v>247.6110448378853</v>
       </c>
       <c r="H31">
-        <v>6.05776120698127</v>
+        <v>18.63394987242527</v>
       </c>
       <c r="I31">
-        <v>390.604971547694</v>
+        <v>1201.518714760777</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>165.753287039269</v>
+        <v>509.8646738204129</v>
       </c>
       <c r="C32">
-        <v>5.93835720758747</v>
+        <v>18.26665772219872</v>
       </c>
       <c r="D32">
-        <v>88.20218920049817</v>
+        <v>271.3139584152206</v>
       </c>
       <c r="E32">
-        <v>35.91761174497656</v>
+        <v>110.4842125539393</v>
       </c>
       <c r="F32">
-        <v>41.8715039625251</v>
+        <v>128.7986566756</v>
       </c>
       <c r="G32">
-        <v>47.21431958179843</v>
+        <v>145.2334012991442</v>
       </c>
       <c r="H32">
-        <v>7.950811584162917</v>
+        <v>24.45705920755817</v>
       </c>
       <c r="I32">
-        <v>392.8480803208176</v>
+        <v>1208.418619694074</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>181.1775512498676</v>
+        <v>557.3104143009238</v>
       </c>
       <c r="C33">
-        <v>4.665852091675869</v>
+        <v>14.35237392458471</v>
       </c>
       <c r="D33">
-        <v>75.70109151853778</v>
+        <v>232.8600115532209</v>
       </c>
       <c r="E33">
-        <v>51.41148347810372</v>
+        <v>158.1440689497563</v>
       </c>
       <c r="F33">
-        <v>30.48708583446527</v>
+        <v>93.77966707255668</v>
       </c>
       <c r="G33">
-        <v>36.37824623515616</v>
+        <v>111.9011452632751</v>
       </c>
       <c r="H33">
-        <v>2.650270528054306</v>
+        <v>8.152353069186056</v>
       </c>
       <c r="I33">
-        <v>382.4715809358607</v>
+        <v>1176.500034133504</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>184.016843666744</v>
+        <v>566.0442073246992</v>
       </c>
       <c r="C34">
-        <v>5.514188835616936</v>
+        <v>16.96189645632738</v>
       </c>
       <c r="D34">
-        <v>59.72746670269954</v>
+        <v>183.72441278511</v>
       </c>
       <c r="E34">
-        <v>54.93281796290533</v>
+        <v>168.9758544942602</v>
       </c>
       <c r="F34">
-        <v>16.40128035398448</v>
+        <v>50.45108671624885</v>
       </c>
       <c r="G34">
-        <v>19.3501309761469</v>
+        <v>59.52188577833782</v>
       </c>
       <c r="H34">
-        <v>1.135830226308988</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I34">
-        <v>341.0785587244062</v>
+        <v>1049.173209156063</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>118.7898557114761</v>
+        <v>365.4030162379626</v>
       </c>
       <c r="C35">
-        <v>8.69545162539594</v>
+        <v>26.74760595036242</v>
       </c>
       <c r="D35">
-        <v>36.11428219232996</v>
+        <v>111.0891798235549</v>
       </c>
       <c r="E35">
-        <v>45.0730814054608</v>
+        <v>138.6468549696494</v>
       </c>
       <c r="F35">
-        <v>7.525293338886998</v>
+        <v>23.1481456698083</v>
       </c>
       <c r="G35">
-        <v>14.70609954187164</v>
+        <v>45.23663319153674</v>
       </c>
       <c r="H35">
-        <v>1.514440301745317</v>
+        <v>4.658487468106317</v>
       </c>
       <c r="I35">
-        <v>232.4185041171667</v>
+        <v>714.9299233109805</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>102.3680022733263</v>
+        <v>314.8886457761255</v>
       </c>
       <c r="C36">
-        <v>9.543788369337005</v>
+        <v>29.35712848210508</v>
       </c>
       <c r="D36">
-        <v>29.86373335134977</v>
+        <v>91.862206392555</v>
       </c>
       <c r="E36">
-        <v>38.73467933281788</v>
+        <v>119.1496409895425</v>
       </c>
       <c r="F36">
-        <v>9.068943254556126</v>
+        <v>27.89648324310231</v>
       </c>
       <c r="G36">
-        <v>12.38408382473401</v>
+        <v>38.09400689813619</v>
       </c>
       <c r="H36">
-        <v>1.135830226308988</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I36">
-        <v>203.0990606324301</v>
+        <v>624.7419773826463</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>77.88869738187869</v>
+        <v>239.5891870035738</v>
       </c>
       <c r="C37">
-        <v>5.302104649631669</v>
+        <v>16.30951582339171</v>
       </c>
       <c r="D37">
-        <v>25.69670079069631</v>
+        <v>79.04422410522176</v>
       </c>
       <c r="E37">
-        <v>31.69201036321463</v>
+        <v>97.48606990053474</v>
       </c>
       <c r="F37">
-        <v>6.174599662676512</v>
+        <v>18.99335029317604</v>
       </c>
       <c r="G37">
-        <v>9.288062868550513</v>
+        <v>28.57050517360214</v>
       </c>
       <c r="I37">
-        <v>156.0421757166483</v>
+        <v>479.9928522995002</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>56.93932360330444</v>
+        <v>175.1479573957159</v>
       </c>
       <c r="C38">
-        <v>5.726273021602204</v>
+        <v>17.61427708926305</v>
       </c>
       <c r="D38">
-        <v>20.83516280326728</v>
+        <v>64.08991143666627</v>
       </c>
       <c r="E38">
-        <v>15.49387173312715</v>
+        <v>47.65985639581697</v>
       </c>
       <c r="F38">
-        <v>6.174599662676512</v>
+        <v>18.99335029317604</v>
       </c>
       <c r="G38">
-        <v>10.06206810759639</v>
+        <v>30.95138060473566</v>
       </c>
       <c r="H38">
-        <v>0.3786100754363294</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I38">
-        <v>115.6099090070103</v>
+        <v>355.6213550824005</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>35.60626166028742</v>
+        <v>109.526485487348</v>
       </c>
       <c r="C39">
-        <v>1.484589301896867</v>
+        <v>4.566664430549681</v>
       </c>
       <c r="D39">
-        <v>9.02857054808249</v>
+        <v>27.77229495588872</v>
       </c>
       <c r="E39">
-        <v>14.0853379392065</v>
+        <v>43.32714217801543</v>
       </c>
       <c r="F39">
-        <v>3.473212310255537</v>
+        <v>10.68375953991152</v>
       </c>
       <c r="G39">
-        <v>14.70609954187164</v>
+        <v>45.23663319153674</v>
       </c>
       <c r="H39">
-        <v>0.3786100754363294</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I39">
-        <v>78.76268137703677</v>
+        <v>242.2776016502766</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>25.01646832166744</v>
+        <v>76.95179799326603</v>
       </c>
       <c r="C40">
-        <v>3.393346975764269</v>
+        <v>10.4380901269707</v>
       </c>
       <c r="D40">
-        <v>6.250548840980186</v>
+        <v>19.22697343099988</v>
       </c>
       <c r="E40">
-        <v>7.04266896960325</v>
+        <v>21.66357108900771</v>
       </c>
       <c r="F40">
-        <v>6.946424620511075</v>
+        <v>21.36751907982304</v>
       </c>
       <c r="G40">
-        <v>9.288062868550513</v>
+        <v>28.57050517360214</v>
       </c>
       <c r="H40">
-        <v>0.7572201508726587</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I40">
-        <v>58.6947407479494</v>
+        <v>180.5477006277227</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>16.19164053948414</v>
+        <v>49.80622508153107</v>
       </c>
       <c r="C41">
-        <v>5.090020463646402</v>
+        <v>15.65713519045604</v>
       </c>
       <c r="D41">
-        <v>2.083516280326729</v>
+        <v>6.408991143666627</v>
       </c>
       <c r="F41">
-        <v>5.016862225924664</v>
+        <v>15.43209711320553</v>
       </c>
       <c r="G41">
-        <v>15.48010478091752</v>
+        <v>47.61750862267024</v>
       </c>
       <c r="I41">
-        <v>43.86214429029946</v>
+        <v>134.9219571515295</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>10.43631807284286</v>
+        <v>32.10259057387786</v>
       </c>
       <c r="C42">
-        <v>3.393346975764269</v>
+        <v>10.4380901269707</v>
       </c>
       <c r="D42">
-        <v>6.945054267755758</v>
+        <v>21.36330381222208</v>
       </c>
       <c r="F42">
-        <v>3.473212310255537</v>
+        <v>10.68375953991152</v>
       </c>
       <c r="G42">
-        <v>19.3501309761469</v>
+        <v>59.52188577833782</v>
       </c>
       <c r="I42">
-        <v>43.59806260276532</v>
+        <v>134.10962983132</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>11.74085783194822</v>
+        <v>36.11541439561257</v>
       </c>
       <c r="C43">
-        <v>2.969178603793735</v>
+        <v>9.133328861099361</v>
       </c>
       <c r="D43">
-        <v>6.250548840980186</v>
+        <v>19.22697343099988</v>
       </c>
       <c r="E43">
-        <v>5.6341351756826</v>
+        <v>17.33085687120617</v>
       </c>
       <c r="F43">
-        <v>4.245037268090102</v>
+        <v>13.05792832655853</v>
       </c>
       <c r="G43">
-        <v>18.57612573710103</v>
+        <v>57.14101034720428</v>
       </c>
       <c r="I43">
-        <v>49.41588345759587</v>
+        <v>152.0055122326808</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>20.94937377857427</v>
+        <v>64.44122960785775</v>
       </c>
       <c r="C44">
-        <v>1.908757673867401</v>
+        <v>5.871425696421017</v>
       </c>
       <c r="D44">
-        <v>13.89010853551152</v>
+        <v>42.72660762444416</v>
       </c>
       <c r="E44">
-        <v>2.8170675878413</v>
+        <v>8.665428435603085</v>
       </c>
       <c r="F44">
-        <v>8.683030775638844</v>
+        <v>26.7093988497788</v>
       </c>
       <c r="G44">
-        <v>23.99416241042216</v>
+        <v>73.80713836513888</v>
       </c>
       <c r="I44">
-        <v>72.2425007618555</v>
+        <v>222.2212285792437</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>50.41662480777764</v>
+        <v>155.0838382870423</v>
       </c>
       <c r="C45">
-        <v>1.484589301896867</v>
+        <v>4.566664430549681</v>
       </c>
       <c r="D45">
-        <v>29.86373335134977</v>
+        <v>91.862206392555</v>
       </c>
       <c r="E45">
-        <v>25.3536082905717</v>
+        <v>77.9888559204278</v>
       </c>
       <c r="F45">
-        <v>15.43649915669128</v>
+        <v>47.48337573294009</v>
       </c>
       <c r="G45">
-        <v>34.83023575706442</v>
+        <v>107.1393944010081</v>
       </c>
       <c r="H45">
-        <v>1.135830226308988</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I45">
-        <v>158.5211208916607</v>
+        <v>487.6182007656026</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>95.84530347779955</v>
+        <v>294.8245266674517</v>
       </c>
       <c r="C46">
-        <v>2.120841859852668</v>
+        <v>6.523806329356687</v>
       </c>
       <c r="D46">
-        <v>63.894499263353</v>
+        <v>196.5423950724433</v>
       </c>
       <c r="E46">
-        <v>67.60962210819119</v>
+        <v>207.970282454474</v>
       </c>
       <c r="F46">
-        <v>26.43500480583381</v>
+        <v>81.31528094265991</v>
       </c>
       <c r="G46">
-        <v>60.37240864557833</v>
+        <v>185.7082836284139</v>
       </c>
       <c r="H46">
-        <v>4.164710829799622</v>
+        <v>12.81084053729238</v>
       </c>
       <c r="I46">
-        <v>320.4423909904082</v>
+        <v>985.695415632092</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>154.319379738875</v>
+        <v>474.6934532652083</v>
       </c>
       <c r="C47">
-        <v>2.332926045837934</v>
+        <v>7.176186962292355</v>
       </c>
       <c r="D47">
-        <v>50.00439072784149</v>
+        <v>153.8157874479991</v>
       </c>
       <c r="E47">
-        <v>66.90535521123086</v>
+        <v>205.8039253455733</v>
       </c>
       <c r="F47">
-        <v>30.87299831338255</v>
+        <v>94.96675146588018</v>
       </c>
       <c r="G47">
-        <v>76.62651866554172</v>
+        <v>235.7066676822177</v>
       </c>
       <c r="H47">
-        <v>3.786100754363293</v>
+        <v>11.64621867026579</v>
       </c>
       <c r="I47">
-        <v>384.8476694570728</v>
+        <v>1183.808990839437</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>189.3884779689426</v>
+        <v>582.5675995318421</v>
       </c>
       <c r="C48">
-        <v>4.665852091675869</v>
+        <v>14.35237392458471</v>
       </c>
       <c r="D48">
-        <v>72.92306981143548</v>
+        <v>224.3146900283319</v>
       </c>
       <c r="E48">
-        <v>40.84748002369884</v>
+        <v>125.6487123162448</v>
       </c>
       <c r="F48">
-        <v>37.81942293389363</v>
+        <v>116.3342705457032</v>
       </c>
       <c r="G48">
-        <v>93.65463392455102</v>
+        <v>288.085927167155</v>
       </c>
       <c r="H48">
-        <v>8.329421659599245</v>
+        <v>25.62168107458476</v>
       </c>
       <c r="I48">
-        <v>447.6283584137967</v>
+        <v>1376.925254588446</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>137.7440510349481</v>
+        <v>423.7069858831674</v>
       </c>
       <c r="C49">
-        <v>8.271283253425404</v>
+        <v>25.44284468449106</v>
       </c>
       <c r="D49">
-        <v>102.0922977360097</v>
+        <v>314.0405660396647</v>
       </c>
       <c r="E49">
-        <v>40.84748002369884</v>
+        <v>125.6487123162448</v>
       </c>
       <c r="F49">
-        <v>42.45037268090102</v>
+        <v>130.5792832655853</v>
       </c>
       <c r="G49">
-        <v>124.614843486386</v>
+        <v>383.3209444124954</v>
       </c>
       <c r="H49">
-        <v>11.73691233852621</v>
+        <v>36.10327787782397</v>
       </c>
       <c r="I49">
-        <v>467.7572405538953</v>
+        <v>1438.842614479473</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>373.4286638814322</v>
+        <v>116.783006133501</v>
       </c>
       <c r="C2">
-        <v>28.70474784916942</v>
+        <v>8.976886533794637</v>
       </c>
       <c r="D2">
-        <v>162.3611089728879</v>
+        <v>50.7754766009155</v>
       </c>
       <c r="E2">
-        <v>71.48978459372546</v>
+        <v>22.35712670236408</v>
       </c>
       <c r="F2">
-        <v>147.792006968776</v>
+        <v>46.21925557861599</v>
       </c>
       <c r="G2">
-        <v>378.5591935502283</v>
+        <v>118.3874857456215</v>
       </c>
       <c r="H2">
-        <v>15.14008427134554</v>
+        <v>4.734785316007936</v>
       </c>
       <c r="I2">
-        <v>1177.475590087565</v>
+        <v>368.2340226108207</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>389.0078622481669</v>
+        <v>121.6551163767444</v>
       </c>
       <c r="C3">
-        <v>35.2285541785261</v>
+        <v>11.01708801874796</v>
       </c>
       <c r="D3">
-        <v>155.9521178292213</v>
+        <v>48.771181471932</v>
       </c>
       <c r="E3">
-        <v>80.15521302932856</v>
+        <v>25.06708145416578</v>
       </c>
       <c r="F3">
-        <v>137.7017896255263</v>
+        <v>43.06372407324864</v>
       </c>
       <c r="G3">
-        <v>335.7034357898252</v>
+        <v>104.9851288687587</v>
       </c>
       <c r="H3">
-        <v>11.64621867026579</v>
+        <v>3.642142550775335</v>
       </c>
       <c r="I3">
-        <v>1145.39519137086</v>
+        <v>358.2014628143728</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>411.904562878065</v>
+        <v>128.8156420372688</v>
       </c>
       <c r="C4">
-        <v>33.92379291265476</v>
+        <v>10.6090477217573</v>
       </c>
       <c r="D4">
-        <v>158.0884482104435</v>
+        <v>49.43927984825984</v>
       </c>
       <c r="E4">
-        <v>73.65614170262623</v>
+        <v>23.03461539031451</v>
       </c>
       <c r="F4">
-        <v>135.3276208388793</v>
+        <v>42.32124607198571</v>
       </c>
       <c r="G4">
-        <v>319.0373077718905</v>
+        <v>99.77310119442315</v>
       </c>
       <c r="H4">
-        <v>19.79857173945185</v>
+        <v>6.191642336318069</v>
       </c>
       <c r="I4">
-        <v>1151.736446054011</v>
+        <v>360.1845746003274</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>407.8917390563303</v>
+        <v>127.5607045503727</v>
       </c>
       <c r="C5">
-        <v>30.66188974797642</v>
+        <v>9.588946979280635</v>
       </c>
       <c r="D5">
-        <v>132.452483635777</v>
+        <v>41.42209933232579</v>
       </c>
       <c r="E5">
-        <v>80.15521302932856</v>
+        <v>25.06708145416578</v>
       </c>
       <c r="F5">
-        <v>154.3209711320553</v>
+        <v>48.26107008208898</v>
       </c>
       <c r="G5">
-        <v>219.0405396642832</v>
+        <v>68.50093514840994</v>
       </c>
       <c r="H5">
-        <v>15.14008427134554</v>
+        <v>4.734785316007936</v>
       </c>
       <c r="I5">
-        <v>1039.662920537096</v>
+        <v>325.1356228626519</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>436.9256996488814</v>
+        <v>136.6405463673264</v>
       </c>
       <c r="C6">
-        <v>30.00950911504076</v>
+        <v>9.384926830785304</v>
       </c>
       <c r="D6">
-        <v>183.72441278511</v>
+        <v>57.45646036419385</v>
       </c>
       <c r="E6">
-        <v>82.32157013822932</v>
+        <v>25.74457014211621</v>
       </c>
       <c r="F6">
-        <v>142.4501271988203</v>
+        <v>44.54868007577444</v>
       </c>
       <c r="G6">
-        <v>264.2771728558199</v>
+        <v>82.64786740732066</v>
       </c>
       <c r="H6">
-        <v>15.14008427134554</v>
+        <v>4.734785316007936</v>
       </c>
       <c r="I6">
-        <v>1154.848576013247</v>
+        <v>361.1578365035248</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>457.6979641378617</v>
+        <v>143.1366933583176</v>
       </c>
       <c r="C7">
-        <v>31.31427038091208</v>
+        <v>9.792967127775968</v>
       </c>
       <c r="D7">
-        <v>175.1790912602212</v>
+        <v>54.78406685888251</v>
       </c>
       <c r="E7">
-        <v>77.9888559204278</v>
+        <v>24.38959276621537</v>
       </c>
       <c r="F7">
-        <v>138.295331822188</v>
+        <v>43.24934357356436</v>
       </c>
       <c r="G7">
-        <v>226.1831659576836</v>
+        <v>70.73466129455375</v>
       </c>
       <c r="H7">
-        <v>17.46932800539869</v>
+        <v>5.463213826163003</v>
       </c>
       <c r="I7">
-        <v>1124.128007484693</v>
+        <v>351.5505388054725</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>520.2508060649026</v>
+        <v>162.6989541834616</v>
       </c>
       <c r="C8">
-        <v>23.48570278568407</v>
+        <v>7.344725345831977</v>
       </c>
       <c r="D8">
-        <v>187.9970735475544</v>
+        <v>58.7926571168495</v>
       </c>
       <c r="E8">
-        <v>114.8169267717409</v>
+        <v>35.90690046137261</v>
       </c>
       <c r="F8">
-        <v>132.3599098555705</v>
+        <v>41.39314857040709</v>
       </c>
       <c r="G8">
-        <v>133.3290241434767</v>
+        <v>41.69622139468431</v>
       </c>
       <c r="H8">
-        <v>22.12781547350501</v>
+        <v>6.920070846473137</v>
       </c>
       <c r="I8">
-        <v>1134.367258642434</v>
+        <v>354.7526779190802</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>568.6407403858215</v>
+        <v>177.8320238783842</v>
       </c>
       <c r="C9">
-        <v>18.91903835513439</v>
+        <v>5.916584306364648</v>
       </c>
       <c r="D9">
-        <v>162.3611089728879</v>
+        <v>50.7754766009155</v>
       </c>
       <c r="E9">
-        <v>162.4767831675579</v>
+        <v>50.811651596282</v>
       </c>
       <c r="F9">
-        <v>96.15383585920371</v>
+        <v>30.07035905114775</v>
       </c>
       <c r="G9">
-        <v>102.377643538741</v>
+        <v>32.01674142806115</v>
       </c>
       <c r="H9">
-        <v>6.987731202159478</v>
+        <v>2.185285530465201</v>
       </c>
       <c r="I9">
-        <v>1117.916881481506</v>
+        <v>349.6081223916205</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>577.6105818696994</v>
+        <v>180.6371782608578</v>
       </c>
       <c r="C10">
-        <v>22.18094151981273</v>
+        <v>6.936685048841311</v>
       </c>
       <c r="D10">
-        <v>128.1798228733325</v>
+        <v>40.08590257967013</v>
       </c>
       <c r="E10">
-        <v>173.3085687120617</v>
+        <v>54.19909503603415</v>
       </c>
       <c r="F10">
-        <v>51.63817110957235</v>
+        <v>16.14889652746824</v>
       </c>
       <c r="G10">
-        <v>54.76013491607079</v>
+        <v>17.12523378710248</v>
       </c>
       <c r="H10">
-        <v>3.493865601079739</v>
+        <v>1.092642765232601</v>
       </c>
       <c r="I10">
-        <v>1011.172086601629</v>
+        <v>316.2256340052068</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>372.9565669612278</v>
+        <v>116.6353664291603</v>
       </c>
       <c r="C11">
-        <v>34.57617354559044</v>
+        <v>10.81306787025263</v>
       </c>
       <c r="D11">
-        <v>76.90789372399954</v>
+        <v>24.05154154780208</v>
       </c>
       <c r="E11">
-        <v>142.9795691874509</v>
+        <v>44.71425340472815</v>
       </c>
       <c r="F11">
-        <v>23.74168786647004</v>
+        <v>7.424780012629076</v>
       </c>
       <c r="G11">
-        <v>40.4748823292697</v>
+        <v>12.65778149481488</v>
       </c>
       <c r="H11">
-        <v>4.658487468106317</v>
+        <v>1.456857020310134</v>
       </c>
       <c r="I11">
-        <v>696.2952610821148</v>
+        <v>217.7536477796972</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>321.2619541988806</v>
+        <v>100.4688188038526</v>
       </c>
       <c r="C12">
-        <v>38.49045734320445</v>
+        <v>12.03718876122463</v>
       </c>
       <c r="D12">
-        <v>64.08991143666627</v>
+        <v>20.04295128983507</v>
       </c>
       <c r="E12">
-        <v>123.482355207344</v>
+        <v>38.6168552131743</v>
       </c>
       <c r="F12">
-        <v>28.49002543976405</v>
+        <v>8.909736015154888</v>
       </c>
       <c r="G12">
-        <v>35.71313146700268</v>
+        <v>11.16863073071901</v>
       </c>
       <c r="H12">
-        <v>3.493865601079739</v>
+        <v>1.092642765232601</v>
       </c>
       <c r="I12">
-        <v>615.0217006939417</v>
+        <v>192.3368235791931</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>244.5462046657166</v>
+        <v>76.47736684848739</v>
       </c>
       <c r="C13">
-        <v>21.52856088687707</v>
+        <v>6.732664900345979</v>
       </c>
       <c r="D13">
-        <v>55.54458991177744</v>
+        <v>17.37055778452372</v>
       </c>
       <c r="E13">
-        <v>99.65242700943551</v>
+        <v>31.16447964571962</v>
       </c>
       <c r="F13">
-        <v>19.58689248983779</v>
+        <v>6.125443510418987</v>
       </c>
       <c r="G13">
-        <v>26.18962974246863</v>
+        <v>8.190329202527275</v>
       </c>
       <c r="I13">
-        <v>467.0483047061131</v>
+        <v>146.060841892023</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>178.6886842972465</v>
+        <v>55.88162809295846</v>
       </c>
       <c r="C14">
-        <v>22.83332215274839</v>
+        <v>7.140705197336644</v>
       </c>
       <c r="D14">
-        <v>44.86293800566639</v>
+        <v>14.03006590288455</v>
       </c>
       <c r="E14">
-        <v>49.82621350471776</v>
+        <v>15.58223982285981</v>
       </c>
       <c r="F14">
-        <v>19.58689248983779</v>
+        <v>6.125443510418987</v>
       </c>
       <c r="G14">
-        <v>28.57050517360214</v>
+        <v>8.934904584575207</v>
       </c>
       <c r="H14">
-        <v>1.164621867026579</v>
+        <v>0.3642142550775334</v>
       </c>
       <c r="I14">
-        <v>345.5331774908456</v>
+        <v>108.0592013661112</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>111.8869700883683</v>
+        <v>34.99060992874808</v>
       </c>
       <c r="C15">
-        <v>5.871425696421017</v>
+        <v>1.836181336457994</v>
       </c>
       <c r="D15">
-        <v>19.22697343099988</v>
+        <v>6.012885386950519</v>
       </c>
       <c r="E15">
-        <v>45.49349928691619</v>
+        <v>14.22726244695896</v>
       </c>
       <c r="F15">
-        <v>10.68375953991152</v>
+        <v>3.341151005683084</v>
       </c>
       <c r="G15">
-        <v>40.4748823292697</v>
+        <v>12.65778149481488</v>
       </c>
       <c r="H15">
-        <v>1.164621867026579</v>
+        <v>0.3642142550775334</v>
       </c>
       <c r="I15">
-        <v>234.8021322389132</v>
+        <v>73.43008585469104</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>78.60413721398031</v>
+        <v>24.58201077272808</v>
       </c>
       <c r="C16">
-        <v>13.69999329164904</v>
+        <v>4.284423118401986</v>
       </c>
       <c r="D16">
-        <v>12.81798228733325</v>
+        <v>4.008590257967013</v>
       </c>
       <c r="E16">
-        <v>21.66357108900771</v>
+        <v>6.774886879504269</v>
       </c>
       <c r="F16">
-        <v>21.96106127648479</v>
+        <v>6.867921511681895</v>
       </c>
       <c r="G16">
-        <v>26.18962974246863</v>
+        <v>8.190329202527275</v>
       </c>
       <c r="H16">
-        <v>2.329243734053159</v>
+        <v>0.7284285101550668</v>
       </c>
       <c r="I16">
-        <v>177.2656186349769</v>
+        <v>55.43659025296559</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>50.75041892193926</v>
+        <v>15.87126821662624</v>
       </c>
       <c r="C17">
-        <v>20.22379962100572</v>
+        <v>6.324624603355313</v>
       </c>
       <c r="D17">
-        <v>4.272660762444418</v>
+        <v>1.336196752655671</v>
       </c>
       <c r="F17">
-        <v>16.02563930986728</v>
+        <v>5.011726508524626</v>
       </c>
       <c r="G17">
-        <v>42.85575776040322</v>
+        <v>13.40235687686281</v>
       </c>
       <c r="I17">
-        <v>134.1282763756599</v>
+        <v>41.94617295802466</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>32.81073595418398</v>
+        <v>10.26095945167929</v>
       </c>
       <c r="C18">
-        <v>13.69999329164904</v>
+        <v>4.284423118401986</v>
       </c>
       <c r="D18">
-        <v>14.95431266855547</v>
+        <v>4.676688634294848</v>
       </c>
       <c r="F18">
-        <v>10.68375953991152</v>
+        <v>3.341151005683084</v>
       </c>
       <c r="G18">
-        <v>54.76013491607079</v>
+        <v>17.12523378710248</v>
       </c>
       <c r="I18">
-        <v>126.9089363703708</v>
+        <v>39.6884559971617</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>36.82355977591869</v>
+        <v>11.51589693857532</v>
       </c>
       <c r="C19">
-        <v>11.74285139284203</v>
+        <v>3.672362672915988</v>
       </c>
       <c r="D19">
-        <v>12.81798228733325</v>
+        <v>4.008590257967013</v>
       </c>
       <c r="E19">
-        <v>17.33085687120617</v>
+        <v>5.419909503603412</v>
       </c>
       <c r="F19">
-        <v>13.65147052322028</v>
+        <v>4.269248507261717</v>
       </c>
       <c r="G19">
-        <v>52.37925948493726</v>
+        <v>16.38065840505455</v>
       </c>
       <c r="I19">
-        <v>144.7459803354577</v>
+        <v>45.266666285378</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>65.85752036847002</v>
+        <v>20.59573875552893</v>
       </c>
       <c r="C20">
-        <v>7.828567595228021</v>
+        <v>2.448241781943992</v>
       </c>
       <c r="D20">
-        <v>29.90862533711093</v>
+        <v>9.353377268589696</v>
       </c>
       <c r="E20">
-        <v>8.665428435603085</v>
+        <v>2.709954751801706</v>
       </c>
       <c r="F20">
-        <v>27.30294104644056</v>
+        <v>8.538497014523434</v>
       </c>
       <c r="G20">
-        <v>66.66451207173833</v>
+        <v>20.84811069734215</v>
       </c>
       <c r="I20">
-        <v>206.227594854591</v>
+        <v>64.49392026972991</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>158.3885167284708</v>
+        <v>49.53312080630795</v>
       </c>
       <c r="C21">
-        <v>5.871425696421017</v>
+        <v>1.836181336457994</v>
       </c>
       <c r="D21">
-        <v>64.08991143666627</v>
+        <v>20.04295128983507</v>
       </c>
       <c r="E21">
-        <v>80.15521302932856</v>
+        <v>25.06708145416578</v>
       </c>
       <c r="F21">
-        <v>48.67046012626361</v>
+        <v>15.2207990258896</v>
       </c>
       <c r="G21">
-        <v>97.61589267647399</v>
+        <v>30.52759066396529</v>
       </c>
       <c r="H21">
-        <v>3.493865601079739</v>
+        <v>1.092642765232601</v>
       </c>
       <c r="I21">
-        <v>458.285285294704</v>
+        <v>143.3203673418543</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>300.9617866301048</v>
+        <v>94.12031151720214</v>
       </c>
       <c r="C22">
-        <v>8.48094822816369</v>
+        <v>2.652261930439325</v>
       </c>
       <c r="D22">
-        <v>136.7251443982214</v>
+        <v>42.75829608498147</v>
       </c>
       <c r="E22">
-        <v>214.4693537811764</v>
+        <v>67.07138010709224</v>
       </c>
       <c r="F22">
-        <v>83.68944972930694</v>
+        <v>26.17234954451749</v>
       </c>
       <c r="G22">
-        <v>171.4230310416129</v>
+        <v>53.60942750745124</v>
       </c>
       <c r="H22">
-        <v>11.64621867026579</v>
+        <v>3.642142550775335</v>
       </c>
       <c r="I22">
-        <v>927.3959324788519</v>
+        <v>290.0261692424593</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>484.3714401293922</v>
+        <v>151.4783366535675</v>
       </c>
       <c r="C23">
-        <v>9.133328861099361</v>
+        <v>2.856282078934657</v>
       </c>
       <c r="D23">
-        <v>106.8165190611105</v>
+        <v>33.40491881639178</v>
       </c>
       <c r="E23">
-        <v>212.3029966722756</v>
+        <v>66.3938914191418</v>
       </c>
       <c r="F23">
-        <v>97.34092025252721</v>
+        <v>30.44159805177921</v>
       </c>
       <c r="G23">
-        <v>216.6596642331496</v>
+        <v>67.756359766362</v>
       </c>
       <c r="H23">
-        <v>10.48159680323922</v>
+        <v>3.277928295697802</v>
       </c>
       <c r="I23">
-        <v>1137.106466012793</v>
+        <v>355.6093150818747</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>594.6060709970466</v>
+        <v>185.9522076171233</v>
       </c>
       <c r="C24">
-        <v>18.91903835513439</v>
+        <v>5.916584306364648</v>
       </c>
       <c r="D24">
-        <v>155.9521178292213</v>
+        <v>48.771181471932</v>
       </c>
       <c r="E24">
-        <v>129.9814265340463</v>
+        <v>40.64932127702559</v>
       </c>
       <c r="F24">
-        <v>119.301981529012</v>
+        <v>37.30951956346111</v>
       </c>
       <c r="G24">
-        <v>264.2771728558199</v>
+        <v>82.64786740732066</v>
       </c>
       <c r="H24">
-        <v>23.29243734053159</v>
+        <v>7.284285101550671</v>
       </c>
       <c r="I24">
-        <v>1306.330245440812</v>
+        <v>408.530966744778</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>432.4407789069429</v>
+        <v>135.2379691760896</v>
       </c>
       <c r="C25">
-        <v>33.27141227971909</v>
+        <v>10.40502757326197</v>
       </c>
       <c r="D25">
-        <v>217.9056988846654</v>
+        <v>68.14603438543921</v>
       </c>
       <c r="E25">
-        <v>129.9814265340463</v>
+        <v>40.64932127702559</v>
       </c>
       <c r="F25">
-        <v>134.1405364455558</v>
+        <v>41.95000707135428</v>
       </c>
       <c r="G25">
-        <v>352.3695638077597</v>
+        <v>110.1971565430942</v>
       </c>
       <c r="H25">
-        <v>32.60941227674422</v>
+        <v>10.19799914217094</v>
       </c>
       <c r="I25">
-        <v>1332.718829135433</v>
+        <v>416.7835151684358</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>365.8751131581666</v>
+        <v>114.4207708640496</v>
       </c>
       <c r="C26">
-        <v>22.18094151981273</v>
+        <v>6.936685048841311</v>
       </c>
       <c r="D26">
-        <v>232.8600115532209</v>
+        <v>72.82272301973406</v>
       </c>
       <c r="E26">
-        <v>69.32342748482468</v>
+        <v>21.67963801441365</v>
       </c>
       <c r="F26">
-        <v>144.2307537888055</v>
+        <v>45.10553857672163</v>
       </c>
       <c r="G26">
-        <v>411.8914495860977</v>
+        <v>128.8115410942926</v>
       </c>
       <c r="H26">
-        <v>16.30470613837211</v>
+        <v>5.098999571085471</v>
       </c>
       <c r="I26">
-        <v>1262.6664032293</v>
+        <v>394.8758961891382</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>381.2182630647994</v>
+        <v>119.2190612551227</v>
       </c>
       <c r="C27">
-        <v>27.39998658329807</v>
+        <v>8.568846236803973</v>
       </c>
       <c r="D27">
-        <v>224.3146900283319</v>
+        <v>70.15032951442275</v>
       </c>
       <c r="E27">
-        <v>77.9888559204278</v>
+        <v>24.38959276621537</v>
       </c>
       <c r="F27">
-        <v>134.1405364455558</v>
+        <v>41.95000707135428</v>
       </c>
       <c r="G27">
-        <v>366.6548163945609</v>
+        <v>114.6646088353818</v>
       </c>
       <c r="H27">
-        <v>12.81084053729238</v>
+        <v>4.006356805852868</v>
       </c>
       <c r="I27">
-        <v>1224.527988974266</v>
+        <v>382.9488024851538</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>403.6428667744937</v>
+        <v>126.2319472113063</v>
       </c>
       <c r="C28">
-        <v>26.09522531742675</v>
+        <v>8.160805939813308</v>
       </c>
       <c r="D28">
-        <v>228.5873507907764</v>
+        <v>71.4865262670784</v>
       </c>
       <c r="E28">
-        <v>71.48978459372546</v>
+        <v>22.35712670236408</v>
       </c>
       <c r="F28">
-        <v>131.7663676589088</v>
+        <v>41.20752907009138</v>
       </c>
       <c r="G28">
-        <v>347.6078129454928</v>
+        <v>108.7080057789984</v>
       </c>
       <c r="H28">
-        <v>22.12781547350501</v>
+        <v>6.920070846473137</v>
       </c>
       <c r="I28">
-        <v>1231.317223554329</v>
+        <v>385.072011816125</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>399.6300429527587</v>
+        <v>124.9770097244104</v>
       </c>
       <c r="C29">
-        <v>23.48570278568407</v>
+        <v>7.344725345831977</v>
       </c>
       <c r="D29">
-        <v>190.1334039287767</v>
+        <v>59.46075549317734</v>
       </c>
       <c r="E29">
-        <v>77.9888559204278</v>
+        <v>24.38959276621537</v>
       </c>
       <c r="F29">
-        <v>150.166175755423</v>
+        <v>46.9617335798789</v>
       </c>
       <c r="G29">
-        <v>238.0875431133513</v>
+        <v>74.45753820479337</v>
       </c>
       <c r="H29">
-        <v>16.30470613837211</v>
+        <v>5.098999571085471</v>
       </c>
       <c r="I29">
-        <v>1095.796430594793</v>
+        <v>342.6903546853928</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>428.191906625106</v>
+        <v>133.9092118370233</v>
       </c>
       <c r="C30">
-        <v>22.83332215274839</v>
+        <v>7.140705197336644</v>
       </c>
       <c r="D30">
-        <v>264.9049672715539</v>
+        <v>82.84419866465159</v>
       </c>
       <c r="E30">
-        <v>80.15521302932856</v>
+        <v>25.06708145416578</v>
       </c>
       <c r="F30">
-        <v>138.8888740188498</v>
+        <v>43.43496307388008</v>
       </c>
       <c r="G30">
-        <v>288.085927167155</v>
+        <v>90.09362122780003</v>
       </c>
       <c r="H30">
-        <v>16.30470613837211</v>
+        <v>5.098999571085471</v>
       </c>
       <c r="I30">
-        <v>1239.364916403114</v>
+        <v>387.5887810259429</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>448.4920741938818</v>
+        <v>140.2577191236738</v>
       </c>
       <c r="C31">
-        <v>24.13808341861974</v>
+        <v>7.548745494327309</v>
       </c>
       <c r="D31">
-        <v>252.0869849842207</v>
+        <v>78.83560840668456</v>
       </c>
       <c r="E31">
-        <v>75.82249881152701</v>
+        <v>23.71210407826494</v>
       </c>
       <c r="F31">
-        <v>134.7340786422175</v>
+        <v>42.13562657167</v>
       </c>
       <c r="G31">
-        <v>247.6110448378853</v>
+        <v>77.4358397329851</v>
       </c>
       <c r="H31">
-        <v>18.63394987242527</v>
+        <v>5.827428081240535</v>
       </c>
       <c r="I31">
-        <v>1201.518714760777</v>
+        <v>375.7530714888462</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>509.8646738204129</v>
+        <v>159.450880687966</v>
       </c>
       <c r="C32">
-        <v>18.26665772219872</v>
+        <v>5.712564157869314</v>
       </c>
       <c r="D32">
-        <v>271.3139584152206</v>
+        <v>84.84849379363513</v>
       </c>
       <c r="E32">
-        <v>110.4842125539393</v>
+        <v>34.55192308547177</v>
       </c>
       <c r="F32">
-        <v>128.7986566756</v>
+        <v>40.27943156851274</v>
       </c>
       <c r="G32">
-        <v>145.2334012991442</v>
+        <v>45.41909830492396</v>
       </c>
       <c r="H32">
-        <v>24.45705920755817</v>
+        <v>7.648499356628204</v>
       </c>
       <c r="I32">
-        <v>1208.418619694074</v>
+        <v>377.9108909550071</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>557.3104143009238</v>
+        <v>174.2886709742073</v>
       </c>
       <c r="C33">
-        <v>14.35237392458471</v>
+        <v>4.488443266897319</v>
       </c>
       <c r="D33">
-        <v>232.8600115532209</v>
+        <v>72.82272301973406</v>
       </c>
       <c r="E33">
-        <v>158.1440689497563</v>
+        <v>49.45667422038115</v>
       </c>
       <c r="F33">
-        <v>93.77966707255668</v>
+        <v>29.32788104988485</v>
       </c>
       <c r="G33">
-        <v>111.9011452632751</v>
+        <v>34.99504295625289</v>
       </c>
       <c r="H33">
-        <v>8.152353069186056</v>
+        <v>2.549499785542735</v>
       </c>
       <c r="I33">
-        <v>1176.500034133504</v>
+        <v>367.9289352729003</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>566.0442073246992</v>
+        <v>177.0200055045102</v>
       </c>
       <c r="C34">
-        <v>16.96189645632738</v>
+        <v>5.304523860878651</v>
       </c>
       <c r="D34">
-        <v>183.72441278511</v>
+        <v>57.45646036419385</v>
       </c>
       <c r="E34">
-        <v>168.9758544942602</v>
+        <v>52.84411766013329</v>
       </c>
       <c r="F34">
-        <v>50.45108671624885</v>
+        <v>15.77765752683678</v>
       </c>
       <c r="G34">
-        <v>59.52188577833782</v>
+        <v>18.61438455119834</v>
       </c>
       <c r="H34">
-        <v>3.493865601079739</v>
+        <v>1.092642765232601</v>
       </c>
       <c r="I34">
-        <v>1049.173209156063</v>
+        <v>328.1097922329837</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>365.4030162379626</v>
+        <v>114.2731311597089</v>
       </c>
       <c r="C35">
-        <v>26.74760595036242</v>
+        <v>8.364826088308639</v>
       </c>
       <c r="D35">
-        <v>111.0891798235549</v>
+        <v>34.74111556904744</v>
       </c>
       <c r="E35">
-        <v>138.6468549696494</v>
+        <v>43.3592760288273</v>
       </c>
       <c r="F35">
-        <v>23.1481456698083</v>
+        <v>7.239160512313349</v>
       </c>
       <c r="G35">
-        <v>45.23663319153674</v>
+        <v>14.14693225891074</v>
       </c>
       <c r="H35">
-        <v>4.658487468106317</v>
+        <v>1.456857020310134</v>
       </c>
       <c r="I35">
-        <v>714.9299233109805</v>
+        <v>223.5812986374265</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>314.8886457761255</v>
+        <v>98.47568279525302</v>
       </c>
       <c r="C36">
-        <v>29.35712848210508</v>
+        <v>9.180906682289971</v>
       </c>
       <c r="D36">
-        <v>91.862206392555</v>
+        <v>28.72823018209693</v>
       </c>
       <c r="E36">
-        <v>119.1496409895425</v>
+        <v>37.26187783727346</v>
       </c>
       <c r="F36">
-        <v>27.89648324310231</v>
+        <v>8.724116514839164</v>
       </c>
       <c r="G36">
-        <v>38.09400689813619</v>
+        <v>11.91320611276694</v>
       </c>
       <c r="H36">
-        <v>3.493865601079739</v>
+        <v>1.092642765232601</v>
       </c>
       <c r="I36">
-        <v>624.7419773826463</v>
+        <v>195.3766628897521</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>239.5891870035738</v>
+        <v>74.92714995290993</v>
       </c>
       <c r="C37">
-        <v>16.30951582339171</v>
+        <v>5.100503712383317</v>
       </c>
       <c r="D37">
-        <v>79.04422410522176</v>
+        <v>24.71963992412992</v>
       </c>
       <c r="E37">
-        <v>97.48606990053474</v>
+        <v>30.48699095776919</v>
       </c>
       <c r="F37">
-        <v>18.99335029317604</v>
+        <v>5.939824010103259</v>
       </c>
       <c r="G37">
-        <v>28.57050517360214</v>
+        <v>8.934904584575207</v>
       </c>
       <c r="I37">
-        <v>479.9928522995002</v>
+        <v>150.1090131418708</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>175.1479573957159</v>
+        <v>54.77433031040311</v>
       </c>
       <c r="C38">
-        <v>17.61427708926305</v>
+        <v>5.508544009373982</v>
       </c>
       <c r="D38">
-        <v>64.08991143666627</v>
+        <v>20.04295128983507</v>
       </c>
       <c r="E38">
-        <v>47.65985639581697</v>
+        <v>14.90475113490939</v>
       </c>
       <c r="F38">
-        <v>18.99335029317604</v>
+        <v>5.939824010103259</v>
       </c>
       <c r="G38">
-        <v>30.95138060473566</v>
+        <v>9.679479966623138</v>
       </c>
       <c r="H38">
-        <v>1.164621867026579</v>
+        <v>0.3642142550775334</v>
       </c>
       <c r="I38">
-        <v>355.6213550824005</v>
+        <v>111.2140949763255</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>109.526485487348</v>
+        <v>34.25241140704453</v>
       </c>
       <c r="C39">
-        <v>4.566664430549681</v>
+        <v>1.428141039467329</v>
       </c>
       <c r="D39">
-        <v>27.77229495588872</v>
+        <v>8.685278892261861</v>
       </c>
       <c r="E39">
-        <v>43.32714217801543</v>
+        <v>13.54977375900854</v>
       </c>
       <c r="F39">
-        <v>10.68375953991152</v>
+        <v>3.341151005683084</v>
       </c>
       <c r="G39">
-        <v>45.23663319153674</v>
+        <v>14.14693225891074</v>
       </c>
       <c r="H39">
-        <v>1.164621867026579</v>
+        <v>0.3642142550775334</v>
       </c>
       <c r="I39">
-        <v>242.2776016502766</v>
+        <v>75.76790261745361</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>76.95179799326603</v>
+        <v>24.06527180753561</v>
       </c>
       <c r="C40">
-        <v>10.4380901269707</v>
+        <v>3.264322375925323</v>
       </c>
       <c r="D40">
-        <v>19.22697343099988</v>
+        <v>6.012885386950519</v>
       </c>
       <c r="E40">
-        <v>21.66357108900771</v>
+        <v>6.774886879504269</v>
       </c>
       <c r="F40">
-        <v>21.36751907982304</v>
+        <v>6.682302011366168</v>
       </c>
       <c r="G40">
-        <v>28.57050517360214</v>
+        <v>8.934904584575207</v>
       </c>
       <c r="H40">
-        <v>2.329243734053159</v>
+        <v>0.7284285101550668</v>
       </c>
       <c r="I40">
-        <v>180.5477006277227</v>
+        <v>56.46300155601217</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>49.80622508153107</v>
+        <v>15.57598880794482</v>
       </c>
       <c r="C41">
-        <v>15.65713519045604</v>
+        <v>4.896483563887984</v>
       </c>
       <c r="D41">
-        <v>6.408991143666627</v>
+        <v>2.004295128983506</v>
       </c>
       <c r="F41">
-        <v>15.43209711320553</v>
+        <v>4.826107008208899</v>
       </c>
       <c r="G41">
-        <v>47.61750862267024</v>
+        <v>14.89150764095868</v>
       </c>
       <c r="I41">
-        <v>134.9219571515295</v>
+        <v>42.19438214998389</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>32.10259057387786</v>
+        <v>10.03949989516822</v>
       </c>
       <c r="C42">
-        <v>10.4380901269707</v>
+        <v>3.264322375925323</v>
       </c>
       <c r="D42">
-        <v>21.36330381222208</v>
+        <v>6.680983763278356</v>
       </c>
       <c r="F42">
-        <v>10.68375953991152</v>
+        <v>3.341151005683084</v>
       </c>
       <c r="G42">
-        <v>59.52188577833782</v>
+        <v>18.61438455119834</v>
       </c>
       <c r="I42">
-        <v>134.10962983132</v>
+        <v>41.94034159125333</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>36.11541439561257</v>
+        <v>11.29443738206426</v>
       </c>
       <c r="C43">
-        <v>9.133328861099361</v>
+        <v>2.856282078934657</v>
       </c>
       <c r="D43">
-        <v>19.22697343099988</v>
+        <v>6.012885386950519</v>
       </c>
       <c r="E43">
-        <v>17.33085687120617</v>
+        <v>5.419909503603412</v>
       </c>
       <c r="F43">
-        <v>13.05792832655853</v>
+        <v>4.083629006945991</v>
       </c>
       <c r="G43">
-        <v>57.14101034720428</v>
+        <v>17.86980916915041</v>
       </c>
       <c r="I43">
-        <v>152.0055122326808</v>
+        <v>47.53695252764926</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>64.44122960785775</v>
+        <v>20.15281964250682</v>
       </c>
       <c r="C44">
-        <v>5.871425696421017</v>
+        <v>1.836181336457994</v>
       </c>
       <c r="D44">
-        <v>42.72660762444416</v>
+        <v>13.36196752655671</v>
       </c>
       <c r="E44">
-        <v>8.665428435603085</v>
+        <v>2.709954751801706</v>
       </c>
       <c r="F44">
-        <v>26.7093988497788</v>
+        <v>8.352877514207709</v>
       </c>
       <c r="G44">
-        <v>73.80713836513888</v>
+        <v>23.08183684348595</v>
       </c>
       <c r="I44">
-        <v>222.2212285792437</v>
+        <v>69.49563761501688</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>155.0838382870423</v>
+        <v>48.499642875923</v>
       </c>
       <c r="C45">
-        <v>4.566664430549681</v>
+        <v>1.428141039467329</v>
       </c>
       <c r="D45">
-        <v>91.862206392555</v>
+        <v>28.72823018209693</v>
       </c>
       <c r="E45">
-        <v>77.9888559204278</v>
+        <v>24.38959276621537</v>
       </c>
       <c r="F45">
-        <v>47.48337573294009</v>
+        <v>14.84956002525815</v>
       </c>
       <c r="G45">
-        <v>107.1393944010081</v>
+        <v>33.50589219215703</v>
       </c>
       <c r="H45">
-        <v>3.493865601079739</v>
+        <v>1.092642765232601</v>
       </c>
       <c r="I45">
-        <v>487.6182007656026</v>
+        <v>152.4937018463504</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>294.8245266674517</v>
+        <v>92.20099536077292</v>
       </c>
       <c r="C46">
-        <v>6.523806329356687</v>
+        <v>2.040201484953327</v>
       </c>
       <c r="D46">
-        <v>196.5423950724433</v>
+        <v>61.46505062216087</v>
       </c>
       <c r="E46">
-        <v>207.970282454474</v>
+        <v>65.03891404324098</v>
       </c>
       <c r="F46">
-        <v>81.31528094265991</v>
+        <v>25.42987154325458</v>
       </c>
       <c r="G46">
-        <v>185.7082836284139</v>
+        <v>58.07687979973885</v>
       </c>
       <c r="H46">
-        <v>12.81084053729238</v>
+        <v>4.006356805852868</v>
       </c>
       <c r="I46">
-        <v>985.695415632092</v>
+        <v>308.2582696599744</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>474.6934532652083</v>
+        <v>148.4517227145831</v>
       </c>
       <c r="C47">
-        <v>7.176186962292355</v>
+        <v>2.244221633448659</v>
       </c>
       <c r="D47">
-        <v>153.8157874479991</v>
+        <v>48.10308309560416</v>
       </c>
       <c r="E47">
-        <v>205.8039253455733</v>
+        <v>64.36142535529052</v>
       </c>
       <c r="F47">
-        <v>94.96675146588018</v>
+        <v>29.6991200505163</v>
       </c>
       <c r="G47">
-        <v>235.7066676822177</v>
+        <v>73.71296282274547</v>
       </c>
       <c r="H47">
-        <v>11.64621867026579</v>
+        <v>3.642142550775335</v>
       </c>
       <c r="I47">
-        <v>1183.808990839437</v>
+        <v>370.2146782229635</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>582.5675995318421</v>
+        <v>182.1873951564351</v>
       </c>
       <c r="C48">
-        <v>14.35237392458471</v>
+        <v>4.488443266897319</v>
       </c>
       <c r="D48">
-        <v>224.3146900283319</v>
+        <v>70.15032951442275</v>
       </c>
       <c r="E48">
-        <v>125.6487123162448</v>
+        <v>39.29434390112475</v>
       </c>
       <c r="F48">
-        <v>116.3342705457032</v>
+        <v>36.38142206188247</v>
       </c>
       <c r="G48">
-        <v>288.085927167155</v>
+        <v>90.09362122780003</v>
       </c>
       <c r="H48">
-        <v>25.62168107458476</v>
+        <v>8.012713611705736</v>
       </c>
       <c r="I48">
-        <v>1376.925254588446</v>
+        <v>430.6082687402682</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>423.7069858831674</v>
+        <v>132.5066346457865</v>
       </c>
       <c r="C49">
-        <v>25.44284468449106</v>
+        <v>7.956785791317975</v>
       </c>
       <c r="D49">
-        <v>314.0405660396647</v>
+        <v>98.21046132019184</v>
       </c>
       <c r="E49">
-        <v>125.6487123162448</v>
+        <v>39.29434390112475</v>
       </c>
       <c r="F49">
-        <v>130.5792832655853</v>
+        <v>40.83629006945991</v>
       </c>
       <c r="G49">
-        <v>383.3209444124954</v>
+        <v>119.8766365097173</v>
       </c>
       <c r="H49">
-        <v>36.10327787782397</v>
+        <v>11.29064190740354</v>
       </c>
       <c r="I49">
-        <v>1438.842614479473</v>
+        <v>449.9717941450019</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>116.783006133501</v>
+        <v>373.4286638814322</v>
       </c>
       <c r="C2">
-        <v>8.976886533794637</v>
+        <v>28.70474784916942</v>
       </c>
       <c r="D2">
-        <v>50.7754766009155</v>
+        <v>162.3611089728879</v>
       </c>
       <c r="E2">
-        <v>22.35712670236408</v>
+        <v>71.48978459372546</v>
       </c>
       <c r="F2">
-        <v>46.21925557861599</v>
+        <v>147.792006968776</v>
       </c>
       <c r="G2">
-        <v>118.3874857456215</v>
+        <v>378.5591935502283</v>
       </c>
       <c r="H2">
-        <v>4.734785316007936</v>
+        <v>15.14008427134554</v>
       </c>
       <c r="I2">
-        <v>368.2340226108207</v>
+        <v>1177.475590087565</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>121.6551163767444</v>
+        <v>389.0078622481669</v>
       </c>
       <c r="C3">
-        <v>11.01708801874796</v>
+        <v>35.2285541785261</v>
       </c>
       <c r="D3">
-        <v>48.771181471932</v>
+        <v>155.9521178292213</v>
       </c>
       <c r="E3">
-        <v>25.06708145416578</v>
+        <v>80.15521302932856</v>
       </c>
       <c r="F3">
-        <v>43.06372407324864</v>
+        <v>137.7017896255263</v>
       </c>
       <c r="G3">
-        <v>104.9851288687587</v>
+        <v>335.7034357898252</v>
       </c>
       <c r="H3">
-        <v>3.642142550775335</v>
+        <v>11.64621867026579</v>
       </c>
       <c r="I3">
-        <v>358.2014628143728</v>
+        <v>1145.39519137086</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>128.8156420372688</v>
+        <v>411.904562878065</v>
       </c>
       <c r="C4">
-        <v>10.6090477217573</v>
+        <v>33.92379291265476</v>
       </c>
       <c r="D4">
-        <v>49.43927984825984</v>
+        <v>158.0884482104435</v>
       </c>
       <c r="E4">
-        <v>23.03461539031451</v>
+        <v>73.65614170262623</v>
       </c>
       <c r="F4">
-        <v>42.32124607198571</v>
+        <v>135.3276208388793</v>
       </c>
       <c r="G4">
-        <v>99.77310119442315</v>
+        <v>319.0373077718905</v>
       </c>
       <c r="H4">
-        <v>6.191642336318069</v>
+        <v>19.79857173945185</v>
       </c>
       <c r="I4">
-        <v>360.1845746003274</v>
+        <v>1151.736446054011</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>127.5607045503727</v>
+        <v>407.8917390563303</v>
       </c>
       <c r="C5">
-        <v>9.588946979280635</v>
+        <v>30.66188974797642</v>
       </c>
       <c r="D5">
-        <v>41.42209933232579</v>
+        <v>132.452483635777</v>
       </c>
       <c r="E5">
-        <v>25.06708145416578</v>
+        <v>80.15521302932856</v>
       </c>
       <c r="F5">
-        <v>48.26107008208898</v>
+        <v>154.3209711320553</v>
       </c>
       <c r="G5">
-        <v>68.50093514840994</v>
+        <v>219.0405396642832</v>
       </c>
       <c r="H5">
-        <v>4.734785316007936</v>
+        <v>15.14008427134554</v>
       </c>
       <c r="I5">
-        <v>325.1356228626519</v>
+        <v>1039.662920537096</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>136.6405463673264</v>
+        <v>436.9256996488814</v>
       </c>
       <c r="C6">
-        <v>9.384926830785304</v>
+        <v>30.00950911504076</v>
       </c>
       <c r="D6">
-        <v>57.45646036419385</v>
+        <v>183.72441278511</v>
       </c>
       <c r="E6">
-        <v>25.74457014211621</v>
+        <v>82.32157013822932</v>
       </c>
       <c r="F6">
-        <v>44.54868007577444</v>
+        <v>142.4501271988203</v>
       </c>
       <c r="G6">
-        <v>82.64786740732066</v>
+        <v>264.2771728558199</v>
       </c>
       <c r="H6">
-        <v>4.734785316007936</v>
+        <v>15.14008427134554</v>
       </c>
       <c r="I6">
-        <v>361.1578365035248</v>
+        <v>1154.848576013247</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>143.1366933583176</v>
+        <v>457.6979641378617</v>
       </c>
       <c r="C7">
-        <v>9.792967127775968</v>
+        <v>31.31427038091208</v>
       </c>
       <c r="D7">
-        <v>54.78406685888251</v>
+        <v>175.1790912602212</v>
       </c>
       <c r="E7">
-        <v>24.38959276621537</v>
+        <v>77.9888559204278</v>
       </c>
       <c r="F7">
-        <v>43.24934357356436</v>
+        <v>138.295331822188</v>
       </c>
       <c r="G7">
-        <v>70.73466129455375</v>
+        <v>226.1831659576836</v>
       </c>
       <c r="H7">
-        <v>5.463213826163003</v>
+        <v>17.46932800539869</v>
       </c>
       <c r="I7">
-        <v>351.5505388054725</v>
+        <v>1124.128007484693</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>162.6989541834616</v>
+        <v>520.2508060649026</v>
       </c>
       <c r="C8">
-        <v>7.344725345831977</v>
+        <v>23.48570278568407</v>
       </c>
       <c r="D8">
-        <v>58.7926571168495</v>
+        <v>187.9970735475544</v>
       </c>
       <c r="E8">
-        <v>35.90690046137261</v>
+        <v>114.8169267717409</v>
       </c>
       <c r="F8">
-        <v>41.39314857040709</v>
+        <v>132.3599098555705</v>
       </c>
       <c r="G8">
-        <v>41.69622139468431</v>
+        <v>133.3290241434767</v>
       </c>
       <c r="H8">
-        <v>6.920070846473137</v>
+        <v>22.12781547350501</v>
       </c>
       <c r="I8">
-        <v>354.7526779190802</v>
+        <v>1134.367258642434</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>177.8320238783842</v>
+        <v>568.6407403858215</v>
       </c>
       <c r="C9">
-        <v>5.916584306364648</v>
+        <v>18.91903835513439</v>
       </c>
       <c r="D9">
-        <v>50.7754766009155</v>
+        <v>162.3611089728879</v>
       </c>
       <c r="E9">
-        <v>50.811651596282</v>
+        <v>162.4767831675579</v>
       </c>
       <c r="F9">
-        <v>30.07035905114775</v>
+        <v>96.15383585920371</v>
       </c>
       <c r="G9">
-        <v>32.01674142806115</v>
+        <v>102.377643538741</v>
       </c>
       <c r="H9">
-        <v>2.185285530465201</v>
+        <v>6.987731202159478</v>
       </c>
       <c r="I9">
-        <v>349.6081223916205</v>
+        <v>1117.916881481506</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>180.6371782608578</v>
+        <v>577.6105818696994</v>
       </c>
       <c r="C10">
-        <v>6.936685048841311</v>
+        <v>22.18094151981273</v>
       </c>
       <c r="D10">
-        <v>40.08590257967013</v>
+        <v>128.1798228733325</v>
       </c>
       <c r="E10">
-        <v>54.19909503603415</v>
+        <v>173.3085687120617</v>
       </c>
       <c r="F10">
-        <v>16.14889652746824</v>
+        <v>51.63817110957235</v>
       </c>
       <c r="G10">
-        <v>17.12523378710248</v>
+        <v>54.76013491607079</v>
       </c>
       <c r="H10">
-        <v>1.092642765232601</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I10">
-        <v>316.2256340052068</v>
+        <v>1011.172086601629</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>116.6353664291603</v>
+        <v>372.9565669612278</v>
       </c>
       <c r="C11">
-        <v>10.81306787025263</v>
+        <v>34.57617354559044</v>
       </c>
       <c r="D11">
-        <v>24.05154154780208</v>
+        <v>76.90789372399954</v>
       </c>
       <c r="E11">
-        <v>44.71425340472815</v>
+        <v>142.9795691874509</v>
       </c>
       <c r="F11">
-        <v>7.424780012629076</v>
+        <v>23.74168786647004</v>
       </c>
       <c r="G11">
-        <v>12.65778149481488</v>
+        <v>40.4748823292697</v>
       </c>
       <c r="H11">
-        <v>1.456857020310134</v>
+        <v>4.658487468106317</v>
       </c>
       <c r="I11">
-        <v>217.7536477796972</v>
+        <v>696.2952610821148</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>100.4688188038526</v>
+        <v>321.2619541988806</v>
       </c>
       <c r="C12">
-        <v>12.03718876122463</v>
+        <v>38.49045734320445</v>
       </c>
       <c r="D12">
-        <v>20.04295128983507</v>
+        <v>64.08991143666627</v>
       </c>
       <c r="E12">
-        <v>38.6168552131743</v>
+        <v>123.482355207344</v>
       </c>
       <c r="F12">
-        <v>8.909736015154888</v>
+        <v>28.49002543976405</v>
       </c>
       <c r="G12">
-        <v>11.16863073071901</v>
+        <v>35.71313146700268</v>
       </c>
       <c r="H12">
-        <v>1.092642765232601</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I12">
-        <v>192.3368235791931</v>
+        <v>615.0217006939417</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>76.47736684848739</v>
+        <v>244.5462046657166</v>
       </c>
       <c r="C13">
-        <v>6.732664900345979</v>
+        <v>21.52856088687707</v>
       </c>
       <c r="D13">
-        <v>17.37055778452372</v>
+        <v>55.54458991177744</v>
       </c>
       <c r="E13">
-        <v>31.16447964571962</v>
+        <v>99.65242700943551</v>
       </c>
       <c r="F13">
-        <v>6.125443510418987</v>
+        <v>19.58689248983779</v>
       </c>
       <c r="G13">
-        <v>8.190329202527275</v>
+        <v>26.18962974246863</v>
       </c>
       <c r="I13">
-        <v>146.060841892023</v>
+        <v>467.0483047061131</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>55.88162809295846</v>
+        <v>178.6886842972465</v>
       </c>
       <c r="C14">
-        <v>7.140705197336644</v>
+        <v>22.83332215274839</v>
       </c>
       <c r="D14">
-        <v>14.03006590288455</v>
+        <v>44.86293800566639</v>
       </c>
       <c r="E14">
-        <v>15.58223982285981</v>
+        <v>49.82621350471776</v>
       </c>
       <c r="F14">
-        <v>6.125443510418987</v>
+        <v>19.58689248983779</v>
       </c>
       <c r="G14">
-        <v>8.934904584575207</v>
+        <v>28.57050517360214</v>
       </c>
       <c r="H14">
-        <v>0.3642142550775334</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I14">
-        <v>108.0592013661112</v>
+        <v>345.5331774908456</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>34.99060992874808</v>
+        <v>111.8869700883683</v>
       </c>
       <c r="C15">
-        <v>1.836181336457994</v>
+        <v>5.871425696421017</v>
       </c>
       <c r="D15">
-        <v>6.012885386950519</v>
+        <v>19.22697343099988</v>
       </c>
       <c r="E15">
-        <v>14.22726244695896</v>
+        <v>45.49349928691619</v>
       </c>
       <c r="F15">
-        <v>3.341151005683084</v>
+        <v>10.68375953991152</v>
       </c>
       <c r="G15">
-        <v>12.65778149481488</v>
+        <v>40.4748823292697</v>
       </c>
       <c r="H15">
-        <v>0.3642142550775334</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I15">
-        <v>73.43008585469104</v>
+        <v>234.8021322389132</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>24.58201077272808</v>
+        <v>78.60413721398031</v>
       </c>
       <c r="C16">
-        <v>4.284423118401986</v>
+        <v>13.69999329164904</v>
       </c>
       <c r="D16">
-        <v>4.008590257967013</v>
+        <v>12.81798228733325</v>
       </c>
       <c r="E16">
-        <v>6.774886879504269</v>
+        <v>21.66357108900771</v>
       </c>
       <c r="F16">
-        <v>6.867921511681895</v>
+        <v>21.96106127648479</v>
       </c>
       <c r="G16">
-        <v>8.190329202527275</v>
+        <v>26.18962974246863</v>
       </c>
       <c r="H16">
-        <v>0.7284285101550668</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I16">
-        <v>55.43659025296559</v>
+        <v>177.2656186349769</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>15.87126821662624</v>
+        <v>50.75041892193926</v>
       </c>
       <c r="C17">
-        <v>6.324624603355313</v>
+        <v>20.22379962100572</v>
       </c>
       <c r="D17">
-        <v>1.336196752655671</v>
+        <v>4.272660762444418</v>
       </c>
       <c r="F17">
-        <v>5.011726508524626</v>
+        <v>16.02563930986728</v>
       </c>
       <c r="G17">
-        <v>13.40235687686281</v>
+        <v>42.85575776040322</v>
       </c>
       <c r="I17">
-        <v>41.94617295802466</v>
+        <v>134.1282763756599</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>10.26095945167929</v>
+        <v>32.81073595418398</v>
       </c>
       <c r="C18">
-        <v>4.284423118401986</v>
+        <v>13.69999329164904</v>
       </c>
       <c r="D18">
-        <v>4.676688634294848</v>
+        <v>14.95431266855547</v>
       </c>
       <c r="F18">
-        <v>3.341151005683084</v>
+        <v>10.68375953991152</v>
       </c>
       <c r="G18">
-        <v>17.12523378710248</v>
+        <v>54.76013491607079</v>
       </c>
       <c r="I18">
-        <v>39.6884559971617</v>
+        <v>126.9089363703708</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>11.51589693857532</v>
+        <v>36.82355977591869</v>
       </c>
       <c r="C19">
-        <v>3.672362672915988</v>
+        <v>11.74285139284203</v>
       </c>
       <c r="D19">
-        <v>4.008590257967013</v>
+        <v>12.81798228733325</v>
       </c>
       <c r="E19">
-        <v>5.419909503603412</v>
+        <v>17.33085687120617</v>
       </c>
       <c r="F19">
-        <v>4.269248507261717</v>
+        <v>13.65147052322028</v>
       </c>
       <c r="G19">
-        <v>16.38065840505455</v>
+        <v>52.37925948493726</v>
       </c>
       <c r="I19">
-        <v>45.266666285378</v>
+        <v>144.7459803354577</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>20.59573875552893</v>
+        <v>65.85752036847002</v>
       </c>
       <c r="C20">
-        <v>2.448241781943992</v>
+        <v>7.828567595228021</v>
       </c>
       <c r="D20">
-        <v>9.353377268589696</v>
+        <v>29.90862533711093</v>
       </c>
       <c r="E20">
-        <v>2.709954751801706</v>
+        <v>8.665428435603085</v>
       </c>
       <c r="F20">
-        <v>8.538497014523434</v>
+        <v>27.30294104644056</v>
       </c>
       <c r="G20">
-        <v>20.84811069734215</v>
+        <v>66.66451207173833</v>
       </c>
       <c r="I20">
-        <v>64.49392026972991</v>
+        <v>206.227594854591</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>49.53312080630795</v>
+        <v>158.3885167284708</v>
       </c>
       <c r="C21">
-        <v>1.836181336457994</v>
+        <v>5.871425696421017</v>
       </c>
       <c r="D21">
-        <v>20.04295128983507</v>
+        <v>64.08991143666627</v>
       </c>
       <c r="E21">
-        <v>25.06708145416578</v>
+        <v>80.15521302932856</v>
       </c>
       <c r="F21">
-        <v>15.2207990258896</v>
+        <v>48.67046012626361</v>
       </c>
       <c r="G21">
-        <v>30.52759066396529</v>
+        <v>97.61589267647399</v>
       </c>
       <c r="H21">
-        <v>1.092642765232601</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I21">
-        <v>143.3203673418543</v>
+        <v>458.285285294704</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>94.12031151720214</v>
+        <v>300.9617866301048</v>
       </c>
       <c r="C22">
-        <v>2.652261930439325</v>
+        <v>8.48094822816369</v>
       </c>
       <c r="D22">
-        <v>42.75829608498147</v>
+        <v>136.7251443982214</v>
       </c>
       <c r="E22">
-        <v>67.07138010709224</v>
+        <v>214.4693537811764</v>
       </c>
       <c r="F22">
-        <v>26.17234954451749</v>
+        <v>83.68944972930694</v>
       </c>
       <c r="G22">
-        <v>53.60942750745124</v>
+        <v>171.4230310416129</v>
       </c>
       <c r="H22">
-        <v>3.642142550775335</v>
+        <v>11.64621867026579</v>
       </c>
       <c r="I22">
-        <v>290.0261692424593</v>
+        <v>927.3959324788519</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>151.4783366535675</v>
+        <v>484.3714401293922</v>
       </c>
       <c r="C23">
-        <v>2.856282078934657</v>
+        <v>9.133328861099361</v>
       </c>
       <c r="D23">
-        <v>33.40491881639178</v>
+        <v>106.8165190611105</v>
       </c>
       <c r="E23">
-        <v>66.3938914191418</v>
+        <v>212.3029966722756</v>
       </c>
       <c r="F23">
-        <v>30.44159805177921</v>
+        <v>97.34092025252721</v>
       </c>
       <c r="G23">
-        <v>67.756359766362</v>
+        <v>216.6596642331496</v>
       </c>
       <c r="H23">
-        <v>3.277928295697802</v>
+        <v>10.48159680323922</v>
       </c>
       <c r="I23">
-        <v>355.6093150818747</v>
+        <v>1137.106466012793</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>185.9522076171233</v>
+        <v>594.6060709970466</v>
       </c>
       <c r="C24">
-        <v>5.916584306364648</v>
+        <v>18.91903835513439</v>
       </c>
       <c r="D24">
-        <v>48.771181471932</v>
+        <v>155.9521178292213</v>
       </c>
       <c r="E24">
-        <v>40.64932127702559</v>
+        <v>129.9814265340463</v>
       </c>
       <c r="F24">
-        <v>37.30951956346111</v>
+        <v>119.301981529012</v>
       </c>
       <c r="G24">
-        <v>82.64786740732066</v>
+        <v>264.2771728558199</v>
       </c>
       <c r="H24">
-        <v>7.284285101550671</v>
+        <v>23.29243734053159</v>
       </c>
       <c r="I24">
-        <v>408.530966744778</v>
+        <v>1306.330245440812</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>135.2379691760896</v>
+        <v>432.4407789069429</v>
       </c>
       <c r="C25">
-        <v>10.40502757326197</v>
+        <v>33.27141227971909</v>
       </c>
       <c r="D25">
-        <v>68.14603438543921</v>
+        <v>217.9056988846654</v>
       </c>
       <c r="E25">
-        <v>40.64932127702559</v>
+        <v>129.9814265340463</v>
       </c>
       <c r="F25">
-        <v>41.95000707135428</v>
+        <v>134.1405364455558</v>
       </c>
       <c r="G25">
-        <v>110.1971565430942</v>
+        <v>352.3695638077597</v>
       </c>
       <c r="H25">
-        <v>10.19799914217094</v>
+        <v>32.60941227674422</v>
       </c>
       <c r="I25">
-        <v>416.7835151684358</v>
+        <v>1332.718829135433</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>114.4207708640496</v>
+        <v>365.8751131581666</v>
       </c>
       <c r="C26">
-        <v>6.936685048841311</v>
+        <v>22.18094151981273</v>
       </c>
       <c r="D26">
-        <v>72.82272301973406</v>
+        <v>232.8600115532209</v>
       </c>
       <c r="E26">
-        <v>21.67963801441365</v>
+        <v>69.32342748482468</v>
       </c>
       <c r="F26">
-        <v>45.10553857672163</v>
+        <v>144.2307537888055</v>
       </c>
       <c r="G26">
-        <v>128.8115410942926</v>
+        <v>411.8914495860977</v>
       </c>
       <c r="H26">
-        <v>5.098999571085471</v>
+        <v>16.30470613837211</v>
       </c>
       <c r="I26">
-        <v>394.8758961891382</v>
+        <v>1262.6664032293</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>119.2190612551227</v>
+        <v>381.2182630647994</v>
       </c>
       <c r="C27">
-        <v>8.568846236803973</v>
+        <v>27.39998658329807</v>
       </c>
       <c r="D27">
-        <v>70.15032951442275</v>
+        <v>224.3146900283319</v>
       </c>
       <c r="E27">
-        <v>24.38959276621537</v>
+        <v>77.9888559204278</v>
       </c>
       <c r="F27">
-        <v>41.95000707135428</v>
+        <v>134.1405364455558</v>
       </c>
       <c r="G27">
-        <v>114.6646088353818</v>
+        <v>366.6548163945609</v>
       </c>
       <c r="H27">
-        <v>4.006356805852868</v>
+        <v>12.81084053729238</v>
       </c>
       <c r="I27">
-        <v>382.9488024851538</v>
+        <v>1224.527988974266</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>126.2319472113063</v>
+        <v>403.6428667744937</v>
       </c>
       <c r="C28">
-        <v>8.160805939813308</v>
+        <v>26.09522531742675</v>
       </c>
       <c r="D28">
-        <v>71.4865262670784</v>
+        <v>228.5873507907764</v>
       </c>
       <c r="E28">
-        <v>22.35712670236408</v>
+        <v>71.48978459372546</v>
       </c>
       <c r="F28">
-        <v>41.20752907009138</v>
+        <v>131.7663676589088</v>
       </c>
       <c r="G28">
-        <v>108.7080057789984</v>
+        <v>347.6078129454928</v>
       </c>
       <c r="H28">
-        <v>6.920070846473137</v>
+        <v>22.12781547350501</v>
       </c>
       <c r="I28">
-        <v>385.072011816125</v>
+        <v>1231.317223554329</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>124.9770097244104</v>
+        <v>399.6300429527587</v>
       </c>
       <c r="C29">
-        <v>7.344725345831977</v>
+        <v>23.48570278568407</v>
       </c>
       <c r="D29">
-        <v>59.46075549317734</v>
+        <v>190.1334039287767</v>
       </c>
       <c r="E29">
-        <v>24.38959276621537</v>
+        <v>77.9888559204278</v>
       </c>
       <c r="F29">
-        <v>46.9617335798789</v>
+        <v>150.166175755423</v>
       </c>
       <c r="G29">
-        <v>74.45753820479337</v>
+        <v>238.0875431133513</v>
       </c>
       <c r="H29">
-        <v>5.098999571085471</v>
+        <v>16.30470613837211</v>
       </c>
       <c r="I29">
-        <v>342.6903546853928</v>
+        <v>1095.796430594793</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>133.9092118370233</v>
+        <v>428.191906625106</v>
       </c>
       <c r="C30">
-        <v>7.140705197336644</v>
+        <v>22.83332215274839</v>
       </c>
       <c r="D30">
-        <v>82.84419866465159</v>
+        <v>264.9049672715539</v>
       </c>
       <c r="E30">
-        <v>25.06708145416578</v>
+        <v>80.15521302932856</v>
       </c>
       <c r="F30">
-        <v>43.43496307388008</v>
+        <v>138.8888740188498</v>
       </c>
       <c r="G30">
-        <v>90.09362122780003</v>
+        <v>288.085927167155</v>
       </c>
       <c r="H30">
-        <v>5.098999571085471</v>
+        <v>16.30470613837211</v>
       </c>
       <c r="I30">
-        <v>387.5887810259429</v>
+        <v>1239.364916403114</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>140.2577191236738</v>
+        <v>448.4920741938818</v>
       </c>
       <c r="C31">
-        <v>7.548745494327309</v>
+        <v>24.13808341861974</v>
       </c>
       <c r="D31">
-        <v>78.83560840668456</v>
+        <v>252.0869849842207</v>
       </c>
       <c r="E31">
-        <v>23.71210407826494</v>
+        <v>75.82249881152701</v>
       </c>
       <c r="F31">
-        <v>42.13562657167</v>
+        <v>134.7340786422175</v>
       </c>
       <c r="G31">
-        <v>77.4358397329851</v>
+        <v>247.6110448378853</v>
       </c>
       <c r="H31">
-        <v>5.827428081240535</v>
+        <v>18.63394987242527</v>
       </c>
       <c r="I31">
-        <v>375.7530714888462</v>
+        <v>1201.518714760777</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>159.450880687966</v>
+        <v>509.8646738204129</v>
       </c>
       <c r="C32">
-        <v>5.712564157869314</v>
+        <v>18.26665772219872</v>
       </c>
       <c r="D32">
-        <v>84.84849379363513</v>
+        <v>271.3139584152206</v>
       </c>
       <c r="E32">
-        <v>34.55192308547177</v>
+        <v>110.4842125539393</v>
       </c>
       <c r="F32">
-        <v>40.27943156851274</v>
+        <v>128.7986566756</v>
       </c>
       <c r="G32">
-        <v>45.41909830492396</v>
+        <v>145.2334012991442</v>
       </c>
       <c r="H32">
-        <v>7.648499356628204</v>
+        <v>24.45705920755817</v>
       </c>
       <c r="I32">
-        <v>377.9108909550071</v>
+        <v>1208.418619694074</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>174.2886709742073</v>
+        <v>557.3104143009238</v>
       </c>
       <c r="C33">
-        <v>4.488443266897319</v>
+        <v>14.35237392458471</v>
       </c>
       <c r="D33">
-        <v>72.82272301973406</v>
+        <v>232.8600115532209</v>
       </c>
       <c r="E33">
-        <v>49.45667422038115</v>
+        <v>158.1440689497563</v>
       </c>
       <c r="F33">
-        <v>29.32788104988485</v>
+        <v>93.77966707255668</v>
       </c>
       <c r="G33">
-        <v>34.99504295625289</v>
+        <v>111.9011452632751</v>
       </c>
       <c r="H33">
-        <v>2.549499785542735</v>
+        <v>8.152353069186056</v>
       </c>
       <c r="I33">
-        <v>367.9289352729003</v>
+        <v>1176.500034133504</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>177.0200055045102</v>
+        <v>566.0442073246992</v>
       </c>
       <c r="C34">
-        <v>5.304523860878651</v>
+        <v>16.96189645632738</v>
       </c>
       <c r="D34">
-        <v>57.45646036419385</v>
+        <v>183.72441278511</v>
       </c>
       <c r="E34">
-        <v>52.84411766013329</v>
+        <v>168.9758544942602</v>
       </c>
       <c r="F34">
-        <v>15.77765752683678</v>
+        <v>50.45108671624885</v>
       </c>
       <c r="G34">
-        <v>18.61438455119834</v>
+        <v>59.52188577833782</v>
       </c>
       <c r="H34">
-        <v>1.092642765232601</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I34">
-        <v>328.1097922329837</v>
+        <v>1049.173209156063</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>114.2731311597089</v>
+        <v>365.4030162379626</v>
       </c>
       <c r="C35">
-        <v>8.364826088308639</v>
+        <v>26.74760595036242</v>
       </c>
       <c r="D35">
-        <v>34.74111556904744</v>
+        <v>111.0891798235549</v>
       </c>
       <c r="E35">
-        <v>43.3592760288273</v>
+        <v>138.6468549696494</v>
       </c>
       <c r="F35">
-        <v>7.239160512313349</v>
+        <v>23.1481456698083</v>
       </c>
       <c r="G35">
-        <v>14.14693225891074</v>
+        <v>45.23663319153674</v>
       </c>
       <c r="H35">
-        <v>1.456857020310134</v>
+        <v>4.658487468106317</v>
       </c>
       <c r="I35">
-        <v>223.5812986374265</v>
+        <v>714.9299233109805</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>98.47568279525302</v>
+        <v>314.8886457761255</v>
       </c>
       <c r="C36">
-        <v>9.180906682289971</v>
+        <v>29.35712848210508</v>
       </c>
       <c r="D36">
-        <v>28.72823018209693</v>
+        <v>91.862206392555</v>
       </c>
       <c r="E36">
-        <v>37.26187783727346</v>
+        <v>119.1496409895425</v>
       </c>
       <c r="F36">
-        <v>8.724116514839164</v>
+        <v>27.89648324310231</v>
       </c>
       <c r="G36">
-        <v>11.91320611276694</v>
+        <v>38.09400689813619</v>
       </c>
       <c r="H36">
-        <v>1.092642765232601</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I36">
-        <v>195.3766628897521</v>
+        <v>624.7419773826463</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>74.92714995290993</v>
+        <v>239.5891870035738</v>
       </c>
       <c r="C37">
-        <v>5.100503712383317</v>
+        <v>16.30951582339171</v>
       </c>
       <c r="D37">
-        <v>24.71963992412992</v>
+        <v>79.04422410522176</v>
       </c>
       <c r="E37">
-        <v>30.48699095776919</v>
+        <v>97.48606990053474</v>
       </c>
       <c r="F37">
-        <v>5.939824010103259</v>
+        <v>18.99335029317604</v>
       </c>
       <c r="G37">
-        <v>8.934904584575207</v>
+        <v>28.57050517360214</v>
       </c>
       <c r="I37">
-        <v>150.1090131418708</v>
+        <v>479.9928522995002</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>54.77433031040311</v>
+        <v>175.1479573957159</v>
       </c>
       <c r="C38">
-        <v>5.508544009373982</v>
+        <v>17.61427708926305</v>
       </c>
       <c r="D38">
-        <v>20.04295128983507</v>
+        <v>64.08991143666627</v>
       </c>
       <c r="E38">
-        <v>14.90475113490939</v>
+        <v>47.65985639581697</v>
       </c>
       <c r="F38">
-        <v>5.939824010103259</v>
+        <v>18.99335029317604</v>
       </c>
       <c r="G38">
-        <v>9.679479966623138</v>
+        <v>30.95138060473566</v>
       </c>
       <c r="H38">
-        <v>0.3642142550775334</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I38">
-        <v>111.2140949763255</v>
+        <v>355.6213550824005</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>34.25241140704453</v>
+        <v>109.526485487348</v>
       </c>
       <c r="C39">
-        <v>1.428141039467329</v>
+        <v>4.566664430549681</v>
       </c>
       <c r="D39">
-        <v>8.685278892261861</v>
+        <v>27.77229495588872</v>
       </c>
       <c r="E39">
-        <v>13.54977375900854</v>
+        <v>43.32714217801543</v>
       </c>
       <c r="F39">
-        <v>3.341151005683084</v>
+        <v>10.68375953991152</v>
       </c>
       <c r="G39">
-        <v>14.14693225891074</v>
+        <v>45.23663319153674</v>
       </c>
       <c r="H39">
-        <v>0.3642142550775334</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I39">
-        <v>75.76790261745361</v>
+        <v>242.2776016502766</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>24.06527180753561</v>
+        <v>76.95179799326603</v>
       </c>
       <c r="C40">
-        <v>3.264322375925323</v>
+        <v>10.4380901269707</v>
       </c>
       <c r="D40">
-        <v>6.012885386950519</v>
+        <v>19.22697343099988</v>
       </c>
       <c r="E40">
-        <v>6.774886879504269</v>
+        <v>21.66357108900771</v>
       </c>
       <c r="F40">
-        <v>6.682302011366168</v>
+        <v>21.36751907982304</v>
       </c>
       <c r="G40">
-        <v>8.934904584575207</v>
+        <v>28.57050517360214</v>
       </c>
       <c r="H40">
-        <v>0.7284285101550668</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I40">
-        <v>56.46300155601217</v>
+        <v>180.5477006277227</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>15.57598880794482</v>
+        <v>49.80622508153107</v>
       </c>
       <c r="C41">
-        <v>4.896483563887984</v>
+        <v>15.65713519045604</v>
       </c>
       <c r="D41">
-        <v>2.004295128983506</v>
+        <v>6.408991143666627</v>
       </c>
       <c r="F41">
-        <v>4.826107008208899</v>
+        <v>15.43209711320553</v>
       </c>
       <c r="G41">
-        <v>14.89150764095868</v>
+        <v>47.61750862267024</v>
       </c>
       <c r="I41">
-        <v>42.19438214998389</v>
+        <v>134.9219571515295</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>10.03949989516822</v>
+        <v>32.10259057387786</v>
       </c>
       <c r="C42">
-        <v>3.264322375925323</v>
+        <v>10.4380901269707</v>
       </c>
       <c r="D42">
-        <v>6.680983763278356</v>
+        <v>21.36330381222208</v>
       </c>
       <c r="F42">
-        <v>3.341151005683084</v>
+        <v>10.68375953991152</v>
       </c>
       <c r="G42">
-        <v>18.61438455119834</v>
+        <v>59.52188577833782</v>
       </c>
       <c r="I42">
-        <v>41.94034159125333</v>
+        <v>134.10962983132</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>11.29443738206426</v>
+        <v>36.11541439561257</v>
       </c>
       <c r="C43">
-        <v>2.856282078934657</v>
+        <v>9.133328861099361</v>
       </c>
       <c r="D43">
-        <v>6.012885386950519</v>
+        <v>19.22697343099988</v>
       </c>
       <c r="E43">
-        <v>5.419909503603412</v>
+        <v>17.33085687120617</v>
       </c>
       <c r="F43">
-        <v>4.083629006945991</v>
+        <v>13.05792832655853</v>
       </c>
       <c r="G43">
-        <v>17.86980916915041</v>
+        <v>57.14101034720428</v>
       </c>
       <c r="I43">
-        <v>47.53695252764926</v>
+        <v>152.0055122326808</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>20.15281964250682</v>
+        <v>64.44122960785775</v>
       </c>
       <c r="C44">
-        <v>1.836181336457994</v>
+        <v>5.871425696421017</v>
       </c>
       <c r="D44">
-        <v>13.36196752655671</v>
+        <v>42.72660762444416</v>
       </c>
       <c r="E44">
-        <v>2.709954751801706</v>
+        <v>8.665428435603085</v>
       </c>
       <c r="F44">
-        <v>8.352877514207709</v>
+        <v>26.7093988497788</v>
       </c>
       <c r="G44">
-        <v>23.08183684348595</v>
+        <v>73.80713836513888</v>
       </c>
       <c r="I44">
-        <v>69.49563761501688</v>
+        <v>222.2212285792437</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>48.499642875923</v>
+        <v>155.0838382870423</v>
       </c>
       <c r="C45">
-        <v>1.428141039467329</v>
+        <v>4.566664430549681</v>
       </c>
       <c r="D45">
-        <v>28.72823018209693</v>
+        <v>91.862206392555</v>
       </c>
       <c r="E45">
-        <v>24.38959276621537</v>
+        <v>77.9888559204278</v>
       </c>
       <c r="F45">
-        <v>14.84956002525815</v>
+        <v>47.48337573294009</v>
       </c>
       <c r="G45">
-        <v>33.50589219215703</v>
+        <v>107.1393944010081</v>
       </c>
       <c r="H45">
-        <v>1.092642765232601</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I45">
-        <v>152.4937018463504</v>
+        <v>487.6182007656026</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>92.20099536077292</v>
+        <v>294.8245266674517</v>
       </c>
       <c r="C46">
-        <v>2.040201484953327</v>
+        <v>6.523806329356687</v>
       </c>
       <c r="D46">
-        <v>61.46505062216087</v>
+        <v>196.5423950724433</v>
       </c>
       <c r="E46">
-        <v>65.03891404324098</v>
+        <v>207.970282454474</v>
       </c>
       <c r="F46">
-        <v>25.42987154325458</v>
+        <v>81.31528094265991</v>
       </c>
       <c r="G46">
-        <v>58.07687979973885</v>
+        <v>185.7082836284139</v>
       </c>
       <c r="H46">
-        <v>4.006356805852868</v>
+        <v>12.81084053729238</v>
       </c>
       <c r="I46">
-        <v>308.2582696599744</v>
+        <v>985.695415632092</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>148.4517227145831</v>
+        <v>474.6934532652083</v>
       </c>
       <c r="C47">
-        <v>2.244221633448659</v>
+        <v>7.176186962292355</v>
       </c>
       <c r="D47">
-        <v>48.10308309560416</v>
+        <v>153.8157874479991</v>
       </c>
       <c r="E47">
-        <v>64.36142535529052</v>
+        <v>205.8039253455733</v>
       </c>
       <c r="F47">
-        <v>29.6991200505163</v>
+        <v>94.96675146588018</v>
       </c>
       <c r="G47">
-        <v>73.71296282274547</v>
+        <v>235.7066676822177</v>
       </c>
       <c r="H47">
-        <v>3.642142550775335</v>
+        <v>11.64621867026579</v>
       </c>
       <c r="I47">
-        <v>370.2146782229635</v>
+        <v>1183.808990839437</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>182.1873951564351</v>
+        <v>582.5675995318421</v>
       </c>
       <c r="C48">
-        <v>4.488443266897319</v>
+        <v>14.35237392458471</v>
       </c>
       <c r="D48">
-        <v>70.15032951442275</v>
+        <v>224.3146900283319</v>
       </c>
       <c r="E48">
-        <v>39.29434390112475</v>
+        <v>125.6487123162448</v>
       </c>
       <c r="F48">
-        <v>36.38142206188247</v>
+        <v>116.3342705457032</v>
       </c>
       <c r="G48">
-        <v>90.09362122780003</v>
+        <v>288.085927167155</v>
       </c>
       <c r="H48">
-        <v>8.012713611705736</v>
+        <v>25.62168107458476</v>
       </c>
       <c r="I48">
-        <v>430.6082687402682</v>
+        <v>1376.925254588446</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>132.5066346457865</v>
+        <v>423.7069858831674</v>
       </c>
       <c r="C49">
-        <v>7.956785791317975</v>
+        <v>25.44284468449106</v>
       </c>
       <c r="D49">
-        <v>98.21046132019184</v>
+        <v>314.0405660396647</v>
       </c>
       <c r="E49">
-        <v>39.29434390112475</v>
+        <v>125.6487123162448</v>
       </c>
       <c r="F49">
-        <v>40.83629006945991</v>
+        <v>130.5792832655853</v>
       </c>
       <c r="G49">
-        <v>119.8766365097173</v>
+        <v>383.3209444124954</v>
       </c>
       <c r="H49">
-        <v>11.29064190740354</v>
+        <v>36.10327787782397</v>
       </c>
       <c r="I49">
-        <v>449.9717941450019</v>
+        <v>1438.842614479473</v>
       </c>
     </row>
   </sheetData>
